--- a/Requirements/RTM.xlsx
+++ b/Requirements/RTM.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,7 +56,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -68,44 +79,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -135,12 +146,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -179,200 +190,152 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Requirements/RTM.xlsx
+++ b/Requirements/RTM.xlsx
@@ -1,26 +1,103 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031E6A21-AA9F-4D59-8DBE-7ADA790BBD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+  <si>
+    <t>SRS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LowLevel Design </t>
+  </si>
+  <si>
+    <t xml:space="preserve">High Level Design </t>
+  </si>
+  <si>
+    <t>SIQ</t>
+  </si>
+  <si>
+    <t>RTM</t>
+  </si>
+  <si>
+    <t>SRS_Register_001</t>
+  </si>
+  <si>
+    <t>Low_Design_reg_1</t>
+  </si>
+  <si>
+    <t>REG_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> High_level_reg_1</t>
+  </si>
+  <si>
+    <t>SRS_Register_002</t>
+  </si>
+  <si>
+    <t>SRS_Register_003</t>
+  </si>
+  <si>
+    <t>SRS_Login_001</t>
+  </si>
+  <si>
+    <t>Low_Design_login_1</t>
+  </si>
+  <si>
+    <t>High_level_login_1</t>
+  </si>
+  <si>
+    <t>login_001</t>
+  </si>
+  <si>
+    <t>new_account_001</t>
+  </si>
+  <si>
+    <t>view_client_accounts</t>
+  </si>
+  <si>
+    <t>SRS_Login_002</t>
+  </si>
+  <si>
+    <t>SRS_Login_003</t>
+  </si>
+  <si>
+    <t>SRS_ View Account _001</t>
+  </si>
+  <si>
+    <t>referenced to 
+High_level_login_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRS_ View Account _002          </t>
+  </si>
+  <si>
+    <t>Low_Design_view_AdminPage_1</t>
+  </si>
+  <si>
+    <t>Low_Design_view_clientAccount_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +105,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Raleway"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFB4C6E7"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -45,18 +156,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -79,44 +244,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -144,14 +309,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -179,6 +361,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -190,153 +389,333 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="32.85546875" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" customWidth="1"/>
+    <col min="3" max="3" width="40.28515625" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="4" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Requirements/RTM.xlsx
+++ b/Requirements/RTM.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031E6A21-AA9F-4D59-8DBE-7ADA790BBD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
   <si>
     <t>SRS</t>
   </si>
@@ -29,9 +28,6 @@
     <t>SIQ</t>
   </si>
   <si>
-    <t>RTM</t>
-  </si>
-  <si>
     <t>SRS_Register_001</t>
   </si>
   <si>
@@ -77,10 +73,6 @@
     <t>SRS_ View Account _001</t>
   </si>
   <si>
-    <t>referenced to 
-High_level_login_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">SRS_ View Account _002          </t>
   </si>
   <si>
@@ -90,14 +82,101 @@
     <t>Low_Design_view_clientAccount_1</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>CRs</t>
+  </si>
+  <si>
+    <t>SRS_Login_004</t>
+  </si>
+  <si>
+    <t>CRs_2.2</t>
+  </si>
+  <si>
+    <t>SRS_Logout_001</t>
+  </si>
+  <si>
+    <t>SRS_Logout_002</t>
+  </si>
+  <si>
+    <t>SRS_Logout_003</t>
+  </si>
+  <si>
+    <t>SRS_PerformTransaction_001</t>
+  </si>
+  <si>
+    <t>SRS_PerformTransaction_002</t>
+  </si>
+  <si>
+    <t>SRS_PerformTransaction_003</t>
+  </si>
+  <si>
+    <t>SRS_PerformTransaction_004</t>
+  </si>
+  <si>
+    <t>SRS_PerformTransaction_005</t>
+  </si>
+  <si>
+    <t>2.2 Login and Logout</t>
+  </si>
+  <si>
+    <t>2.1     Register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3 View Account </t>
+  </si>
+  <si>
+    <t>2.4 Perform Transaction</t>
+  </si>
+  <si>
+    <t>SRS_AddNewAccount _001</t>
+  </si>
+  <si>
+    <t>2.5 Add New Account</t>
+  </si>
+  <si>
+    <t>2.6 Close Account</t>
+  </si>
+  <si>
+    <t>SRS_Close Account _001</t>
+  </si>
+  <si>
+    <t>SRS_Close. Account _002</t>
+  </si>
+  <si>
+    <t>SRS_Close Account _003</t>
+  </si>
+  <si>
+    <t>High_level_Logout_1</t>
+  </si>
+  <si>
+    <t>High_level_login_admin_1</t>
+  </si>
+  <si>
+    <t>Low_design_add_account_1</t>
+  </si>
+  <si>
+    <t>Low_Design_CloseAccount_1</t>
+  </si>
+  <si>
+    <t>trans_001</t>
+  </si>
+  <si>
+    <t>admin_001</t>
+  </si>
+  <si>
+    <t>CRs_2.1</t>
+  </si>
+  <si>
+    <t>CRs_2.3</t>
+  </si>
+  <si>
+    <t>CRs_1.2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,14 +200,8 @@
       <family val="1"/>
       <scheme val="major"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Raleway"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,12 +212,6 @@
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FFB4C6E7"/>
       </patternFill>
     </fill>
   </fills>
@@ -172,49 +239,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -309,23 +364,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -361,23 +399,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -553,167 +574,458 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" customWidth="1"/>
-    <col min="2" max="2" width="38.42578125" customWidth="1"/>
-    <col min="3" max="3" width="40.28515625" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" customWidth="1"/>
+    <col min="1" max="1" width="46.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="39" style="6" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="F2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="F4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="F5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="4" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-    </row>
-    <row r="13" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-    </row>
-    <row r="14" spans="1:4" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
+      <c r="F13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:XFD1"/>
+  <mergeCells count="5">
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Requirements/RTM.xlsx
+++ b/Requirements/RTM.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031E6A21-AA9F-4D59-8DBE-7ADA790BBD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
   <si>
     <t>SRS</t>
   </si>
@@ -29,9 +28,6 @@
     <t>SIQ</t>
   </si>
   <si>
-    <t>RTM</t>
-  </si>
-  <si>
     <t>SRS_Register_001</t>
   </si>
   <si>
@@ -77,10 +73,6 @@
     <t>SRS_ View Account _001</t>
   </si>
   <si>
-    <t>referenced to 
-High_level_login_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">SRS_ View Account _002          </t>
   </si>
   <si>
@@ -90,14 +82,101 @@
     <t>Low_Design_view_clientAccount_1</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>CRs</t>
+  </si>
+  <si>
+    <t>2.1     Register</t>
+  </si>
+  <si>
+    <t>CRs_2.1</t>
+  </si>
+  <si>
+    <t>2.2 Login and Logout</t>
+  </si>
+  <si>
+    <t>CRs_2.2</t>
+  </si>
+  <si>
+    <t>SRS_Login_004</t>
+  </si>
+  <si>
+    <t>SRS_Logout_001</t>
+  </si>
+  <si>
+    <t>High_level_Logout_1</t>
+  </si>
+  <si>
+    <t>SRS_Logout_002</t>
+  </si>
+  <si>
+    <t>SRS_Logout_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3 View Account </t>
+  </si>
+  <si>
+    <t>High_level_login_admin_1</t>
+  </si>
+  <si>
+    <t>CRs_2.3</t>
+  </si>
+  <si>
+    <t>2.4 Perform Transaction</t>
+  </si>
+  <si>
+    <t>SRS_PerformTransaction_001</t>
+  </si>
+  <si>
+    <t>trans_001</t>
+  </si>
+  <si>
+    <t>CRs_1.2</t>
+  </si>
+  <si>
+    <t>SRS_PerformTransaction_002</t>
+  </si>
+  <si>
+    <t>SRS_PerformTransaction_003</t>
+  </si>
+  <si>
+    <t>SRS_PerformTransaction_004</t>
+  </si>
+  <si>
+    <t>SRS_PerformTransaction_005</t>
+  </si>
+  <si>
+    <t>2.5 Add New Account</t>
+  </si>
+  <si>
+    <t>SRS_AddNewAccount _001</t>
+  </si>
+  <si>
+    <t>Low_design_add_account_1</t>
+  </si>
+  <si>
+    <t>2.6 Close Account</t>
+  </si>
+  <si>
+    <t>SRS_Close Account _001</t>
+  </si>
+  <si>
+    <t>Low_Design_CloseAccount_1</t>
+  </si>
+  <si>
+    <t>admin_001</t>
+  </si>
+  <si>
+    <t>SRS_Close. Account _002</t>
+  </si>
+  <si>
+    <t>SRS_Close Account _003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,14 +200,8 @@
       <family val="1"/>
       <scheme val="major"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Raleway"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,12 +212,6 @@
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FFB4C6E7"/>
       </patternFill>
     </fill>
   </fills>
@@ -172,31 +239,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -204,17 +262,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -309,23 +364,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -361,23 +399,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -553,167 +574,457 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" customWidth="1"/>
-    <col min="2" max="2" width="38.42578125" customWidth="1"/>
-    <col min="3" max="3" width="40.28515625" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" customWidth="1"/>
+    <col min="1" max="1" width="46.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="39" style="6" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="4" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="E13" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="F13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-    </row>
-    <row r="13" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-    </row>
-    <row r="14" spans="1:4" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:XFD1"/>
+  <mergeCells count="5">
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Requirements/RTM.xlsx
+++ b/Requirements/RTM.xlsx
@@ -262,13 +262,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -578,18 +578,19 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="38.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="39" style="6" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="46.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="39" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -610,7 +611,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="2" t="s">

--- a/Requirements/RTM.xlsx
+++ b/Requirements/RTM.xlsx
@@ -19,9 +19,6 @@
     <t>SRS</t>
   </si>
   <si>
-    <t xml:space="preserve">LowLevel Design </t>
-  </si>
-  <si>
     <t xml:space="preserve">High Level Design </t>
   </si>
   <si>
@@ -170,13 +167,16 @@
   </si>
   <si>
     <t>CRs_1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low Level Design </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,7 +186,7 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Cambria"/>
       <family val="1"/>
@@ -194,14 +194,29 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Cambria"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,6 +226,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,24 +302,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -575,449 +644,560 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="38.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="39" style="6" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="46.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="B12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="3" t="s">
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3" t="s">
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="2"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Requirements/RTM.xlsx
+++ b/Requirements/RTM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="53">
   <si>
     <t>SRS</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>SRS_Close Account _003</t>
+  </si>
+  <si>
+    <t>Low_Design_ PerformTransaction _1</t>
   </si>
 </sst>
 </file>
@@ -251,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -263,6 +266,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -579,7 +585,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,7 +617,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -632,7 +638,7 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
@@ -651,7 +657,7 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
@@ -670,7 +676,7 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -691,7 +697,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
@@ -710,7 +716,7 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
@@ -729,7 +735,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
@@ -748,7 +754,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
@@ -763,7 +769,7 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="2" t="s">
         <v>30</v>
       </c>
@@ -778,7 +784,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
@@ -793,7 +799,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -812,7 +818,7 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
@@ -831,13 +837,15 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
         <v>37</v>
@@ -848,11 +856,13 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
         <v>37</v>
@@ -863,11 +873,13 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
+      <c r="A16" s="6"/>
       <c r="B16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
         <v>37</v>
@@ -878,11 +890,13 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
         <v>37</v>
@@ -893,11 +907,13 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
         <v>37</v>
@@ -925,7 +941,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -942,7 +958,7 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
+      <c r="A21" s="6"/>
       <c r="B21" s="2" t="s">
         <v>50</v>
       </c>
@@ -957,7 +973,7 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
+      <c r="A22" s="6"/>
       <c r="B22" s="2" t="s">
         <v>51</v>
       </c>

--- a/Requirements/RTM.xlsx
+++ b/Requirements/RTM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="54">
   <si>
     <t>SRS</t>
   </si>
@@ -64,9 +64,6 @@
     <t>SRS_Login_002</t>
   </si>
   <si>
-    <t>SRS_Login_003</t>
-  </si>
-  <si>
     <t>SRS_ View Account _001</t>
   </si>
   <si>
@@ -145,9 +142,6 @@
     <t>High_level_Logout_1</t>
   </si>
   <si>
-    <t>High_level_login_admin_1</t>
-  </si>
-  <si>
     <t>Low_design_add_account_1</t>
   </si>
   <si>
@@ -166,10 +160,23 @@
     <t>CRs_2.3</t>
   </si>
   <si>
-    <t>CRs_1.2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Low Level Design </t>
+  </si>
+  <si>
+    <t>Low_Design_ PerformTransaction _1</t>
+  </si>
+  <si>
+    <t>High_level_login_1, 
+High_level_login_admin_1</t>
+  </si>
+  <si>
+    <t>CRs_1.1, CRs_2.2</t>
+  </si>
+  <si>
+    <t>CRs_3.3</t>
+  </si>
+  <si>
+    <t>CRs_1.2, CRs_2.4</t>
   </si>
 </sst>
 </file>
@@ -302,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -319,6 +326,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -331,14 +347,8 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -644,568 +654,548 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="39" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="26.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="46.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="35.5703125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>33</v>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="F2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
       <c r="B3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
       <c r="B4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>32</v>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="F5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
       <c r="B6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
       <c r="B7" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
       <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+        <v>41</v>
+      </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+        <v>41</v>
+      </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
       <c r="B10" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+        <v>41</v>
+      </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>33</v>
+      </c>
       <c r="B11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="D11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
       <c r="B12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="B13" s="4" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="F13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="I18" s="4"/>
       <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="I19" s="4"/>
       <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>38</v>
-      </c>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
       <c r="B20" s="4" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="E20" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="I20" s="4"/>
       <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
       <c r="B21" s="4" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E21" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
+      <c r="I21" s="4"/>
       <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="I22" s="4"/>
       <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+      <c r="I23" s="4"/>
       <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="I24" s="4"/>
       <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="I25" s="4"/>
       <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="4"/>
+      <c r="D27" s="5"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
+      <c r="F27" s="4"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="4"/>
+      <c r="D28" s="5"/>
       <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
+      <c r="F28" s="4"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
-    </row>
-    <row r="29" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="4"/>
+      <c r="D29" s="5"/>
       <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
+      <c r="F29" s="4"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
-    </row>
-    <row r="30" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Requirements/RTM.xlsx
+++ b/Requirements/RTM.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EDB0AC-5F9C-4EBA-9A72-35C987AD2875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="54">
   <si>
     <t>SRS</t>
   </si>
@@ -25,16 +26,7 @@
     <t>SIQ</t>
   </si>
   <si>
-    <t>SRS_Register_001</t>
-  </si>
-  <si>
-    <t>Low_Design_reg_1</t>
-  </si>
-  <si>
     <t>REG_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> High_level_reg_1</t>
   </si>
   <si>
     <t>SRS_Register_002</t>
@@ -177,13 +169,22 @@
   </si>
   <si>
     <t>CRs_1.2, CRs_2.4</t>
+  </si>
+  <si>
+    <t>CRs_2.1, CRs_3.2</t>
+  </si>
+  <si>
+    <t>Design_09, Design_10</t>
+  </si>
+  <si>
+    <t>Design_11, Design_12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,6 +219,12 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -329,6 +336,9 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -346,9 +356,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -443,6 +450,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -478,6 +502,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -653,12 +694,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -674,7 +715,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -683,48 +724,52 @@
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>32</v>
+      <c r="A2" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="F3" s="4" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -732,19 +777,21 @@
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="F4" s="4" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -752,20 +799,20 @@
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>31</v>
+      <c r="A5" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F5" s="4"/>
       <c r="I5" s="4"/>
@@ -774,19 +821,19 @@
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -794,19 +841,19 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="13" t="s">
-        <v>50</v>
+      <c r="F7" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -814,17 +861,17 @@
       <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -832,17 +879,17 @@
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -850,17 +897,17 @@
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -868,20 +915,20 @@
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>33</v>
+      <c r="A11" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="E11" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F11" s="4"/>
       <c r="I11" s="4"/>
@@ -890,18 +937,18 @@
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="E12" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F12" s="4"/>
       <c r="I12" s="4"/>
@@ -910,20 +957,20 @@
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>34</v>
+      <c r="A13" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F13" s="4"/>
       <c r="I13" s="4"/>
@@ -932,18 +979,18 @@
       <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F14" s="4"/>
       <c r="I14" s="4"/>
@@ -952,18 +999,18 @@
       <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F15" s="4"/>
       <c r="I15" s="4"/>
@@ -972,18 +1019,18 @@
       <c r="L15" s="5"/>
     </row>
     <row r="16" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F16" s="4"/>
       <c r="I16" s="4"/>
@@ -992,18 +1039,18 @@
       <c r="L16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F17" s="4"/>
       <c r="I17" s="4"/>
@@ -1013,17 +1060,17 @@
     </row>
     <row r="18" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F18" s="4"/>
       <c r="I18" s="4"/>
@@ -1032,20 +1079,20 @@
       <c r="L18" s="5"/>
     </row>
     <row r="19" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>37</v>
+      <c r="A19" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F19" s="4"/>
       <c r="I19" s="4"/>
@@ -1054,18 +1101,18 @@
       <c r="L19" s="5"/>
     </row>
     <row r="20" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F20" s="4"/>
       <c r="I20" s="4"/>
@@ -1074,18 +1121,18 @@
       <c r="L20" s="5"/>
     </row>
     <row r="21" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="F21" s="4"/>
       <c r="I21" s="4"/>
@@ -1197,6 +1244,7 @@
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A11:A12"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Requirements/RTM.xlsx
+++ b/Requirements/RTM.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="76">
   <si>
     <t>SRS</t>
   </si>
@@ -28,15 +28,9 @@
     <t>SRS_Register_001</t>
   </si>
   <si>
-    <t>Low_Design_reg_1</t>
-  </si>
-  <si>
     <t>REG_001</t>
   </si>
   <si>
-    <t xml:space="preserve"> High_level_reg_1</t>
-  </si>
-  <si>
     <t>SRS_Register_002</t>
   </si>
   <si>
@@ -46,12 +40,6 @@
     <t>SRS_Login_001</t>
   </si>
   <si>
-    <t>Low_Design_login_1</t>
-  </si>
-  <si>
-    <t>High_level_login_1</t>
-  </si>
-  <si>
     <t>login_001</t>
   </si>
   <si>
@@ -64,18 +52,6 @@
     <t>SRS_Login_002</t>
   </si>
   <si>
-    <t>SRS_ View Account _001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRS_ View Account _002          </t>
-  </si>
-  <si>
-    <t>Low_Design_view_AdminPage_1</t>
-  </si>
-  <si>
-    <t>Low_Design_view_clientAccount_1</t>
-  </si>
-  <si>
     <t>CRs</t>
   </si>
   <si>
@@ -88,12 +64,6 @@
     <t>SRS_Logout_001</t>
   </si>
   <si>
-    <t>SRS_Logout_002</t>
-  </si>
-  <si>
-    <t>SRS_Logout_003</t>
-  </si>
-  <si>
     <t>SRS_PerformTransaction_001</t>
   </si>
   <si>
@@ -109,27 +79,9 @@
     <t>SRS_PerformTransaction_005</t>
   </si>
   <si>
-    <t>2.2 Login and Logout</t>
-  </si>
-  <si>
-    <t>2.1     Register</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3 View Account </t>
-  </si>
-  <si>
-    <t>2.4 Perform Transaction</t>
-  </si>
-  <si>
     <t>SRS_AddNewAccount _001</t>
   </si>
   <si>
-    <t>2.5 Add New Account</t>
-  </si>
-  <si>
-    <t>2.6 Close Account</t>
-  </si>
-  <si>
     <t>SRS_Close Account _001</t>
   </si>
   <si>
@@ -139,44 +91,173 @@
     <t>SRS_Close Account _003</t>
   </si>
   <si>
-    <t>High_level_Logout_1</t>
-  </si>
-  <si>
-    <t>Low_design_add_account_1</t>
-  </si>
-  <si>
-    <t>Low_Design_CloseAccount_1</t>
-  </si>
-  <si>
     <t>trans_001</t>
   </si>
   <si>
     <t>admin_001</t>
   </si>
   <si>
-    <t>CRs_2.1</t>
-  </si>
-  <si>
-    <t>CRs_2.3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Low Level Design </t>
   </si>
   <si>
-    <t>Low_Design_ PerformTransaction _1</t>
-  </si>
-  <si>
-    <t>High_level_login_1, 
+    <t>CRs_1.1, CRs_2.2</t>
+  </si>
+  <si>
+    <t>CRs_1.2, CRs_2.4</t>
+  </si>
+  <si>
+    <t>SRS_Login_003</t>
+  </si>
+  <si>
+    <t>CRs_3.3, CRs_4.2</t>
+  </si>
+  <si>
+    <t>CRs_2.3, CRs_4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRS_ View Account _002, 
+SRS_ View Account _003          </t>
+  </si>
+  <si>
+    <t>CRs_2.3, CRs_1.1</t>
+  </si>
+  <si>
+    <t>CRs_2.1, CRs_4.1</t>
+  </si>
+  <si>
+    <t>CRs_2.1, CRs_3.2, CRs_4.1</t>
+  </si>
+  <si>
+    <t>SRS_Login_005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRS_ View Account _001,
+SRS_ View Account _003,  
+SRS_ View Account _004 </t>
+  </si>
+  <si>
+    <t>SRS_PerformTransaction_006</t>
+  </si>
+  <si>
+    <t>SRS_PerformTransaction_007</t>
+  </si>
+  <si>
+    <t>SRS_PerformTransaction_008</t>
+  </si>
+  <si>
+    <t>SRS_Close Account _004</t>
+  </si>
+  <si>
+    <t>SRS_Close Account _005</t>
+  </si>
+  <si>
+    <t>SRS_Close Account _006</t>
+  </si>
+  <si>
+    <t>SRS_Close Account _007</t>
+  </si>
+  <si>
+    <t>SRS_Close Account _008</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>High_level_reg_1</t>
+  </si>
+  <si>
+    <t>Low_Design_login_client_2</t>
+  </si>
+  <si>
+    <t>Low_Design_login_client_2, 
+Low_Design_login_admin_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low_Design_login_client_2,
+Low_Design_login_admin_2,
+Low_Design_login_1
+</t>
+  </si>
+  <si>
+    <t>Low_Design_reg_1,
+Low_Design_reg_2</t>
+  </si>
+  <si>
+    <t>Low_Design_ViewAllAccounts_Admin_1</t>
+  </si>
+  <si>
+    <t>Low_Design_transferMoney_Client_2</t>
+  </si>
+  <si>
+    <t>Low_Design_transferMoney_Client_1,
+Low_Design_transferMoney_Client_2</t>
+  </si>
+  <si>
+    <t>Low_Design_closeAccount_Admin_1,
+Low_Design_closeAccount_Admin_2</t>
+  </si>
+  <si>
+    <t>Low_Design_closeAccount_Admin_2</t>
+  </si>
+  <si>
+    <t>High_level_Logout_admin_1,
+High_level_Logout_client_1</t>
+  </si>
+  <si>
+    <t>Low_Design_addAccount_client_1</t>
+  </si>
+  <si>
+    <t>Low_Design_Display_ClientName_Date_1,
+Low_Design_ViewTransaction_1,
+Low_Design_getBalance_Client_1,
+Low_Design_ViewAccountsList_Client_1</t>
+  </si>
+  <si>
+    <t>High_level_login_client_1,
 High_level_login_admin_1</t>
   </si>
   <si>
-    <t>CRs_1.1, CRs_2.2</t>
-  </si>
-  <si>
-    <t>CRs_3.3</t>
-  </si>
-  <si>
-    <t>CRs_1.2, CRs_2.4</t>
+    <t>High_level_login_client_1, 
+High_level_login_admin_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login </t>
+  </si>
+  <si>
+    <t xml:space="preserve">View Account </t>
+  </si>
+  <si>
+    <t>Perform Transaction</t>
+  </si>
+  <si>
+    <t>Add New Account</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Close Account</t>
+  </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t>classDiagram_login_001</t>
+  </si>
+  <si>
+    <t>classDiagram_register_001</t>
+  </si>
+  <si>
+    <t>classDiagram_viewAccount_Client_001</t>
+  </si>
+  <si>
+    <t>classDiagram_viewAccount_Admin_001</t>
+  </si>
+  <si>
+    <t>classDiagram_logout_1</t>
+  </si>
+  <si>
+    <t>Class Diagram</t>
   </si>
 </sst>
 </file>
@@ -309,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -332,23 +413,35 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -654,27 +747,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="36.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="40.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="46.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="35.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="44.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21" style="2" customWidth="1"/>
+    <col min="4" max="4" width="38.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="50" style="4" customWidth="1"/>
+    <col min="6" max="6" width="27" style="4" customWidth="1"/>
+    <col min="7" max="7" width="64.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="37.7109375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="B1" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -683,519 +781,588 @@
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>32</v>
+      <c r="G1" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="F2" s="4"/>
+      <c r="G2" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
       <c r="B3" s="4" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
       <c r="B4" s="4" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="E4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>31</v>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="F5" s="4"/>
+      <c r="G5" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
       <c r="B6" s="4" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>50</v>
       </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
       <c r="B8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
-        <v>41</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
       <c r="B9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
-        <v>41</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>65</v>
+      </c>
       <c r="B10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
-        <v>41</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="4"/>
+      <c r="E11" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+    </row>
+    <row r="12" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="B12" s="4" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E13" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="E15" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="I15" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
+    </row>
+    <row r="16" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
       <c r="B16" s="4" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="I16" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="4" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-    </row>
-    <row r="22" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-    </row>
-    <row r="23" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-    </row>
-    <row r="24" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-    </row>
-    <row r="25" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-    </row>
-    <row r="26" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="4"/>
+      <c r="E26" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-    </row>
-    <row r="27" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="4"/>
+    </row>
+    <row r="27" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-    </row>
-    <row r="28" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="4"/>
+    </row>
+    <row r="28" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-    </row>
-    <row r="29" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
+    </row>
+    <row r="29" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="4"/>
+      <c r="D29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A19:A21"/>
+  <mergeCells count="7">
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G5:G9"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="A12:A16"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Requirements/RTM.xlsx
+++ b/Requirements/RTM.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED095288-4441-4BEA-8B34-49CFAD5EC3E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="76">
   <si>
     <t>SRS</t>
   </si>
@@ -101,9 +102,6 @@
   </si>
   <si>
     <t>CRs_1.1, CRs_2.2</t>
-  </si>
-  <si>
-    <t>CRs_1.2, CRs_2.4</t>
   </si>
   <si>
     <t>SRS_Login_003</t>
@@ -259,12 +257,15 @@
   <si>
     <t>Class Diagram</t>
   </si>
+  <si>
+    <t xml:space="preserve"> CRs_2.4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,6 +300,12 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -390,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -419,6 +426,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -435,12 +451,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -536,6 +546,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -571,6 +598,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -746,12 +790,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -769,7 +813,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>12</v>
@@ -787,15 +831,15 @@
         <v>1</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>63</v>
+      <c r="A2" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -804,20 +848,20 @@
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F2" s="4"/>
-      <c r="G2" s="17" t="s">
-        <v>71</v>
+      <c r="G2" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -827,17 +871,17 @@
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="16"/>
+        <v>47</v>
+      </c>
+      <c r="G3" s="12"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
@@ -846,17 +890,17 @@
         <v>6</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="16"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>64</v>
+      <c r="A5" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>14</v>
@@ -868,18 +912,18 @@
         <v>7</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="16" t="s">
-        <v>70</v>
+      <c r="G5" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="4" t="s">
         <v>28</v>
       </c>
@@ -891,15 +935,15 @@
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" s="16"/>
+        <v>60</v>
+      </c>
+      <c r="G6" s="12"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
@@ -907,19 +951,19 @@
         <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="16"/>
+      <c r="G7" s="12"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
@@ -930,12 +974,12 @@
         <v>13</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="16"/>
+        <v>61</v>
+      </c>
+      <c r="G8" s="12"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -949,76 +993,74 @@
         <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="16"/>
+      <c r="G9" s="12"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>65</v>
+      <c r="A10" s="18" t="s">
+        <v>64</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>66</v>
+      <c r="A12" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>25</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="5"/>
@@ -1026,9 +1068,9 @@
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="4" t="s">
-        <v>29</v>
+      <c r="A13" s="14"/>
+      <c r="B13" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>25</v>
@@ -1037,7 +1079,7 @@
         <v>17</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="5"/>
@@ -1045,18 +1087,16 @@
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="A14" s="14"/>
+      <c r="B14" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="5"/>
@@ -1064,18 +1104,16 @@
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="A15" s="14"/>
+      <c r="B15" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="10"/>
       <c r="D15" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="5"/>
@@ -1083,18 +1121,16 @@
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="A16" s="14"/>
+      <c r="B16" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="10"/>
       <c r="D16" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="5"/>
@@ -1103,17 +1139,15 @@
     </row>
     <row r="17" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
-      <c r="B17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="B17" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="10"/>
       <c r="D17" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="5"/>
@@ -1122,17 +1156,15 @@
     </row>
     <row r="18" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
-      <c r="B18" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="B18" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="10"/>
       <c r="D18" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="5"/>
@@ -1141,17 +1173,15 @@
     </row>
     <row r="19" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
-      <c r="B19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="B19" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="10"/>
       <c r="D19" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="5"/>
@@ -1160,10 +1190,10 @@
     </row>
     <row r="20" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>9</v>
@@ -1172,7 +1202,7 @@
         <v>21</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="5"/>
@@ -1180,11 +1210,11 @@
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>68</v>
+      <c r="A21" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>26</v>
@@ -1193,7 +1223,7 @@
         <v>22</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="5"/>
@@ -1201,9 +1231,9 @@
       <c r="J21" s="5"/>
     </row>
     <row r="22" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>26</v>
@@ -1212,7 +1242,7 @@
         <v>23</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="5"/>
@@ -1220,9 +1250,9 @@
       <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>26</v>
@@ -1231,7 +1261,7 @@
         <v>24</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="5"/>
@@ -1239,18 +1269,18 @@
       <c r="J23" s="5"/>
     </row>
     <row r="24" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="5"/>
@@ -1258,18 +1288,18 @@
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="5"/>
@@ -1277,18 +1307,18 @@
       <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="5"/>
@@ -1296,18 +1326,18 @@
       <c r="J26" s="5"/>
     </row>
     <row r="27" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="5"/>
@@ -1315,18 +1345,18 @@
       <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -1335,7 +1365,7 @@
     </row>
     <row r="29" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>14</v>
@@ -1345,10 +1375,10 @@
         <v>15</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
@@ -1364,6 +1394,7 @@
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Requirements/RTM.xlsx
+++ b/Requirements/RTM.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED095288-4441-4BEA-8B34-49CFAD5EC3E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="78">
   <si>
     <t>SRS</t>
   </si>
@@ -113,10 +112,6 @@
     <t>CRs_2.3, CRs_4.1</t>
   </si>
   <si>
-    <t xml:space="preserve">SRS_ View Account _002, 
-SRS_ View Account _003          </t>
-  </si>
-  <si>
     <t>CRs_2.3, CRs_1.1</t>
   </si>
   <si>
@@ -127,11 +122,6 @@
   </si>
   <si>
     <t>SRS_Login_005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRS_ View Account _001,
-SRS_ View Account _003,  
-SRS_ View Account _004 </t>
   </si>
   <si>
     <t>SRS_PerformTransaction_006</t>
@@ -171,101 +161,256 @@
 Low_Design_login_admin_1</t>
   </si>
   <si>
-    <t xml:space="preserve">Low_Design_login_client_2,
-Low_Design_login_admin_2,
+    <t>Low_Design_ViewAllAccounts_Admin_1</t>
+  </si>
+  <si>
+    <t>Low_Design_transferMoney_Client_2</t>
+  </si>
+  <si>
+    <t>Low_Design_transferMoney_Client_1,
+Low_Design_transferMoney_Client_2</t>
+  </si>
+  <si>
+    <t>Low_Design_closeAccount_Admin_1,
+Low_Design_closeAccount_Admin_2</t>
+  </si>
+  <si>
+    <t>Low_Design_closeAccount_Admin_2</t>
+  </si>
+  <si>
+    <t>High_level_Logout_admin_1,
+High_level_Logout_client_1</t>
+  </si>
+  <si>
+    <t>Low_Design_addAccount_client_1</t>
+  </si>
+  <si>
+    <t>High_level_login_client_1,
+High_level_login_admin_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login </t>
+  </si>
+  <si>
+    <t>Perform Transaction</t>
+  </si>
+  <si>
+    <t>Add New Account</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Close Account</t>
+  </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t>classDiagram_login_001</t>
+  </si>
+  <si>
+    <t>classDiagram_register_001</t>
+  </si>
+  <si>
+    <t>classDiagram_logout_1</t>
+  </si>
+  <si>
+    <t>Class Diagram</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CRs_2.4</t>
+  </si>
+  <si>
+    <t>Low_Design_reg_1</t>
+  </si>
+  <si>
+    <t>Low_Design_reg_2</t>
+  </si>
+  <si>
+    <r>
+      <t>SRS_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>View Account</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SRS_ View Account</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">_002          </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SRS_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>View Account</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_004</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SRS_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>View Account</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_006</t>
+    </r>
+  </si>
+  <si>
+    <t>Low_Design_ViewTransaction_1</t>
+  </si>
+  <si>
+    <t>Low_Design_Display_ClientName_Date_1</t>
+  </si>
+  <si>
+    <t>Low_Design_closeAccount_Admin_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 Low_Design_login_1
 </t>
   </si>
   <si>
-    <t>Low_Design_reg_1,
-Low_Design_reg_2</t>
-  </si>
-  <si>
-    <t>Low_Design_ViewAllAccounts_Admin_1</t>
-  </si>
-  <si>
-    <t>Low_Design_transferMoney_Client_2</t>
-  </si>
-  <si>
-    <t>Low_Design_transferMoney_Client_1,
-Low_Design_transferMoney_Client_2</t>
-  </si>
-  <si>
-    <t>Low_Design_closeAccount_Admin_1,
-Low_Design_closeAccount_Admin_2</t>
-  </si>
-  <si>
-    <t>Low_Design_closeAccount_Admin_2</t>
-  </si>
-  <si>
-    <t>High_level_Logout_admin_1,
-High_level_Logout_client_1</t>
-  </si>
-  <si>
-    <t>Low_Design_addAccount_client_1</t>
-  </si>
-  <si>
-    <t>Low_Design_Display_ClientName_Date_1,
-Low_Design_ViewTransaction_1,
-Low_Design_getBalance_Client_1,
-Low_Design_ViewAccountsList_Client_1</t>
-  </si>
-  <si>
-    <t>High_level_login_client_1,
-High_level_login_admin_1</t>
-  </si>
-  <si>
-    <t>High_level_login_client_1, 
-High_level_login_admin_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Register</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login </t>
-  </si>
-  <si>
-    <t xml:space="preserve">View Account </t>
-  </si>
-  <si>
-    <t>Perform Transaction</t>
-  </si>
-  <si>
-    <t>Add New Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Close Account</t>
-  </si>
-  <si>
-    <t>Features</t>
-  </si>
-  <si>
-    <t>classDiagram_login_001</t>
-  </si>
-  <si>
-    <t>classDiagram_register_001</t>
-  </si>
-  <si>
-    <t>classDiagram_viewAccount_Client_001</t>
-  </si>
-  <si>
-    <t>classDiagram_viewAccount_Admin_001</t>
-  </si>
-  <si>
-    <t>classDiagram_logout_1</t>
-  </si>
-  <si>
-    <t>Class Diagram</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CRs_2.4</t>
+    <t>Low_Design_login_admin_2,
+Low_Design_login_client_3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,6 +454,41 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -546,23 +726,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -598,23 +761,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -790,30 +936,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="59.42578125" defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39" style="2" customWidth="1"/>
     <col min="4" max="4" width="38.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="50" style="4" customWidth="1"/>
-    <col min="6" max="6" width="27" style="4" customWidth="1"/>
-    <col min="7" max="7" width="64.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="37.7109375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="6" width="59.42578125" style="4"/>
+    <col min="7" max="16384" width="59.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>12</v>
@@ -831,15 +974,15 @@
         <v>1</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -847,12 +990,12 @@
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>51</v>
+      <c r="E2" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="11" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -861,7 +1004,7 @@
     <row r="3" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
       <c r="B3" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -871,7 +1014,7 @@
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="4"/>
@@ -881,7 +1024,7 @@
     <row r="4" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
       <c r="B4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
@@ -890,7 +1033,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="12"/>
@@ -900,7 +1043,7 @@
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>14</v>
@@ -912,11 +1055,11 @@
         <v>7</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="12" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -933,9 +1076,11 @@
       <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="F6" s="9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="4"/>
@@ -954,7 +1099,7 @@
         <v>29</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="12"/>
@@ -964,21 +1109,19 @@
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>61</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F8" s="9"/>
       <c r="G8" s="12"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -986,118 +1129,119 @@
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="4"/>
+      <c r="D9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="9"/>
       <c r="G9" s="12"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="E12" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
+      <c r="E13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="E14" s="9" t="s">
-        <v>54</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F14" s="9"/>
       <c r="G14" s="4"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -1105,16 +1249,19 @@
     </row>
     <row r="15" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
-      <c r="B15" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="B15" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="9"/>
       <c r="G15" s="4"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -1122,50 +1269,53 @@
     </row>
     <row r="16" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
-      <c r="B16" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="B16" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="9"/>
       <c r="G16" s="4"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A17" s="14"/>
+      <c r="B17" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="9"/>
       <c r="G17" s="4"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A18" s="14"/>
+      <c r="B18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="9"/>
       <c r="G18" s="4"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -1173,96 +1323,97 @@
     </row>
     <row r="19" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
-      <c r="B19" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="B19" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="9"/>
       <c r="G19" s="4"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="9"/>
       <c r="G20" s="4"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>22</v>
+      <c r="A21" s="7"/>
+      <c r="B21" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>55</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F21" s="9"/>
       <c r="G21" s="4"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
     </row>
     <row r="22" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="A22" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="9"/>
       <c r="G22" s="4"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="4" t="s">
+      <c r="A23" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="D23" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="9"/>
       <c r="G23" s="4"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -1270,18 +1421,17 @@
     </row>
     <row r="24" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="9"/>
       <c r="G24" s="4"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -1289,18 +1439,17 @@
     </row>
     <row r="25" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="9"/>
       <c r="G25" s="4"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -1308,18 +1457,17 @@
     </row>
     <row r="26" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>43</v>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>55</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F26" s="9"/>
       <c r="G26" s="4"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -1327,18 +1475,19 @@
     </row>
     <row r="27" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="D27" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="9"/>
       <c r="G27" s="4"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -1346,53 +1495,89 @@
     </row>
     <row r="28" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G28" s="5"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="4"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
     </row>
     <row r="29" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>73</v>
-      </c>
+      <c r="A29" s="13"/>
+      <c r="B29" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="4"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="B30" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="G5:G9"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="A14:A18"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A10:A13"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Requirements/RTM.xlsx
+++ b/Requirements/RTM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="79">
   <si>
     <t>SRS</t>
   </si>
@@ -404,6 +404,9 @@
   <si>
     <t>Low_Design_login_admin_2,
 Low_Design_login_client_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View Account </t>
   </si>
 </sst>
 </file>
@@ -577,7 +580,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -598,9 +601,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -940,13 +940,13 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="59.42578125" defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="54" style="2" customWidth="1"/>
     <col min="2" max="2" width="36.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="39" style="2" customWidth="1"/>
     <col min="4" max="4" width="38.5703125" style="2" customWidth="1"/>
@@ -978,7 +978,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>56</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -990,11 +990,11 @@
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>67</v>
       </c>
       <c r="F2" s="4"/>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>63</v>
       </c>
       <c r="H2" s="4"/>
@@ -1002,7 +1002,7 @@
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="4" t="s">
         <v>33</v>
       </c>
@@ -1016,13 +1016,13 @@
       <c r="F3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="12"/>
+      <c r="G3" s="11"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="4" t="s">
         <v>33</v>
       </c>
@@ -1032,17 +1032,17 @@
       <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>68</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="12"/>
+      <c r="G4" s="11"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>57</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1054,11 +1054,11 @@
       <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>76</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>62</v>
       </c>
       <c r="H5" s="4"/>
@@ -1066,7 +1066,7 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="4" t="s">
         <v>28</v>
       </c>
@@ -1076,19 +1076,19 @@
       <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="12"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
@@ -1098,278 +1098,280 @@
       <c r="D7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>47</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="12"/>
+      <c r="G7" s="11"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="12"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="11"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="12"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="8"/>
       <c r="G14" s="4"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="8"/>
       <c r="G15" s="4"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9" t="s">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="8"/>
       <c r="G16" s="4"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9" t="s">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="8"/>
       <c r="G17" s="4"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="9"/>
+      <c r="F18" s="8"/>
       <c r="G18" s="4"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9" t="s">
+      <c r="C19" s="8"/>
+      <c r="D19" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="8"/>
       <c r="G19" s="4"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="9" t="s">
+      <c r="A20" s="13"/>
+      <c r="B20" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="8"/>
       <c r="G20" s="4"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="9" t="s">
+      <c r="A21" s="13"/>
+      <c r="B21" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9" t="s">
+      <c r="C21" s="8"/>
+      <c r="D21" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="8"/>
       <c r="G21" s="4"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -1379,169 +1381,169 @@
       <c r="A22" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="8"/>
       <c r="G22" s="4"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="9"/>
+      <c r="F23" s="8"/>
       <c r="G23" s="4"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
     </row>
     <row r="24" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="9" t="s">
+      <c r="A24" s="12"/>
+      <c r="B24" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9" t="s">
+      <c r="C24" s="8"/>
+      <c r="D24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="9"/>
+      <c r="F24" s="8"/>
       <c r="G24" s="4"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="9" t="s">
+      <c r="A25" s="12"/>
+      <c r="B25" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9" t="s">
+      <c r="C25" s="8"/>
+      <c r="D25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="9"/>
+      <c r="F25" s="8"/>
       <c r="G25" s="4"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="9" t="s">
+      <c r="A26" s="12"/>
+      <c r="B26" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9" t="s">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F26" s="9"/>
+      <c r="F26" s="8"/>
       <c r="G26" s="4"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
     </row>
     <row r="27" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="12"/>
+      <c r="B27" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F27" s="9"/>
+      <c r="F27" s="8"/>
       <c r="G27" s="4"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="9" t="s">
+      <c r="A28" s="12"/>
+      <c r="B28" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9" t="s">
+      <c r="C28" s="8"/>
+      <c r="D28" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F28" s="9"/>
+      <c r="F28" s="8"/>
       <c r="G28" s="4"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
     </row>
     <row r="29" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="9" t="s">
+      <c r="A29" s="12"/>
+      <c r="B29" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9" t="s">
+      <c r="C29" s="8"/>
+      <c r="D29" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F29" s="9"/>
+      <c r="F29" s="8"/>
       <c r="G29" s="4"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
     </row>
     <row r="30" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="12"/>
+      <c r="B30" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9" t="s">
+      <c r="C30" s="8"/>
+      <c r="D30" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F30" s="9"/>
+      <c r="F30" s="8"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -1551,18 +1553,18 @@
       <c r="A31" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9" t="s">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9" t="s">
+      <c r="E31" s="8"/>
+      <c r="F31" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" s="8" t="s">
         <v>64</v>
       </c>
       <c r="H31" s="5"/>
@@ -1574,10 +1576,10 @@
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="G5:G9"/>
     <mergeCell ref="A23:A30"/>
-    <mergeCell ref="A14:A18"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A8"/>
     <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A14:A21"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Requirements/RTM.xlsx
+++ b/Requirements/RTM.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$32</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="85">
   <si>
     <t>SRS</t>
   </si>
@@ -167,14 +170,6 @@
     <t>Low_Design_transferMoney_Client_2</t>
   </si>
   <si>
-    <t>Low_Design_transferMoney_Client_1,
-Low_Design_transferMoney_Client_2</t>
-  </si>
-  <si>
-    <t>Low_Design_closeAccount_Admin_1,
-Low_Design_closeAccount_Admin_2</t>
-  </si>
-  <si>
     <t>Low_Design_closeAccount_Admin_2</t>
   </si>
   <si>
@@ -388,18 +383,7 @@
     </r>
   </si>
   <si>
-    <t>Low_Design_ViewTransaction_1</t>
-  </si>
-  <si>
-    <t>Low_Design_Display_ClientName_Date_1</t>
-  </si>
-  <si>
     <t>Low_Design_closeAccount_Admin_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Low_Design_login_1
-</t>
   </si>
   <si>
     <t>Low_Design_login_admin_2,
@@ -407,6 +391,89 @@
   </si>
   <si>
     <t xml:space="preserve">View Account </t>
+  </si>
+  <si>
+    <t>Low_Design_transferMoney_Client_1</t>
+  </si>
+  <si>
+    <t>Low_Design_Logout_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Low_Design_login_1,
+Low_Design_loginMain_1
+</t>
+  </si>
+  <si>
+    <t>Low_Design_reg_1,
+Low_Design_regMain_3</t>
+  </si>
+  <si>
+    <r>
+      <t>SRS_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>View Account</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_003</t>
+    </r>
+  </si>
+  <si>
+    <t>CRs_2.3, CRs_4.2</t>
+  </si>
+  <si>
+    <t>Low_Design_Display_ClientName_Date_1,
+Low_Design_ViewClientMain_1</t>
+  </si>
+  <si>
+    <t>Low_Design_closeAccount_Admin_1,
+Low_Design_ViewAdminMain_1</t>
+  </si>
+  <si>
+    <t>Low_Design_transferMoney_Client_1,
+Low_Design_ViewClientMain_1</t>
+  </si>
+  <si>
+    <t>Low_Design_ViewAccountsList_Client_1</t>
+  </si>
+  <si>
+    <t>Low_Design_ViewTransaction_1,
+Low_Design_getBalance_Client_1</t>
   </si>
 </sst>
 </file>
@@ -580,7 +647,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -609,6 +676,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -618,19 +688,19 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -937,26 +1007,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23:A30"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="59.42578125" defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54" style="2" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="36.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="39" style="2" customWidth="1"/>
-    <col min="4" max="4" width="38.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="50.140625" style="2" customWidth="1"/>
     <col min="5" max="6" width="59.42578125" style="4"/>
     <col min="7" max="16384" width="59.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>12</v>
@@ -974,12 +1044,12 @@
         <v>1</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>34</v>
@@ -991,11 +1061,11 @@
         <v>3</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F2" s="4"/>
-      <c r="G2" s="10" t="s">
-        <v>63</v>
+      <c r="G2" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -1012,11 +1082,13 @@
       <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="F3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="12"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -1033,17 +1105,17 @@
         <v>6</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="11"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>57</v>
+      <c r="A5" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>14</v>
@@ -1058,15 +1130,15 @@
         <v>76</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="11" t="s">
-        <v>62</v>
+      <c r="G5" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="4" t="s">
         <v>28</v>
       </c>
@@ -1077,18 +1149,18 @@
         <v>11</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="G6" s="12"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
@@ -1102,13 +1174,13 @@
         <v>47</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="11"/>
+      <c r="G7" s="12"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="8" t="s">
         <v>14</v>
       </c>
@@ -1122,13 +1194,13 @@
         <v>46</v>
       </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="11"/>
+      <c r="G8" s="12"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="8" t="s">
         <v>14</v>
       </c>
@@ -1142,14 +1214,14 @@
         <v>46</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="11"/>
+      <c r="G9" s="12"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>78</v>
+      <c r="A10" s="16" t="s">
+        <v>73</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>30</v>
@@ -1158,7 +1230,7 @@
         <v>26</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>48</v>
@@ -1170,7 +1242,7 @@
       <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="8" t="s">
         <v>31</v>
       </c>
@@ -1178,10 +1250,10 @@
         <v>10</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="9"/>
@@ -1190,38 +1262,38 @@
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="8" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="9"/>
@@ -1229,39 +1301,39 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>58</v>
-      </c>
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
       <c r="B14" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="D14" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="E15" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="4"/>
@@ -1270,16 +1342,18 @@
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="8"/>
+        <v>64</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="D16" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="4"/>
@@ -1288,16 +1362,16 @@
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="4"/>
@@ -1306,13 +1380,13 @@
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>49</v>
@@ -1324,13 +1398,13 @@
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>49</v>
@@ -1342,13 +1416,13 @@
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>49</v>
@@ -1360,13 +1434,13 @@
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>49</v>
@@ -1378,20 +1452,16 @@
       <c r="J21" s="5"/>
     </row>
     <row r="22" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>59</v>
-      </c>
+      <c r="A22" s="18"/>
       <c r="B22" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>9</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C22" s="8"/>
       <c r="D22" s="8" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="4"/>
@@ -1400,20 +1470,20 @@
       <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>60</v>
+      <c r="A23" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="4"/>
@@ -1422,16 +1492,20 @@
       <c r="J23" s="5"/>
     </row>
     <row r="24" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
+      <c r="A24" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="B24" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="8"/>
+      <c r="C24" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="D24" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="4"/>
@@ -1440,16 +1514,16 @@
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="4"/>
@@ -1458,16 +1532,16 @@
       <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="4"/>
@@ -1476,18 +1550,16 @@
       <c r="J26" s="5"/>
     </row>
     <row r="27" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="C27" s="8"/>
       <c r="D27" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="4"/>
@@ -1496,16 +1568,18 @@
       <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="8"/>
+      <c r="C28" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="D28" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="4"/>
@@ -1514,16 +1588,16 @@
       <c r="J28" s="5"/>
     </row>
     <row r="29" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="4"/>
@@ -1532,54 +1606,75 @@
       <c r="J29" s="5"/>
     </row>
     <row r="30" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F30" s="8"/>
-      <c r="G30" s="5"/>
+      <c r="G30" s="4"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
     </row>
     <row r="31" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="A31" s="13"/>
       <c r="B31" s="8" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>64</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
     </row>
+    <row r="32" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:J32"/>
   <mergeCells count="7">
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="G5:G9"/>
-    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="A24:A31"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A10:A14"/>
     <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="A15:A22"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Requirements/RTM.xlsx
+++ b/Requirements/RTM.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C6A1CA-A519-4306-882E-B283F3A4974F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="88">
   <si>
     <t>SRS</t>
   </si>
@@ -155,13 +156,6 @@
   </si>
   <si>
     <t>High_level_reg_1</t>
-  </si>
-  <si>
-    <t>Low_Design_login_client_2</t>
-  </si>
-  <si>
-    <t>Low_Design_login_client_2, 
-Low_Design_login_admin_1</t>
   </si>
   <si>
     <t>Low_Design_ViewAllAccounts_Admin_1</t>
@@ -218,9 +212,6 @@
   </si>
   <si>
     <t>Low_Design_reg_1</t>
-  </si>
-  <si>
-    <t>Low_Design_reg_2</t>
   </si>
   <si>
     <r>
@@ -383,13 +374,6 @@
     </r>
   </si>
   <si>
-    <t>Low_Design_closeAccount_Admin_1</t>
-  </si>
-  <si>
-    <t>Low_Design_login_admin_2,
-Low_Design_login_client_3</t>
-  </si>
-  <si>
     <t xml:space="preserve">View Account </t>
   </si>
   <si>
@@ -397,16 +381,6 @@
   </si>
   <si>
     <t>Low_Design_Logout_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Low_Design_login_1,
-Low_Design_loginMain_1
-</t>
-  </si>
-  <si>
-    <t>Low_Design_reg_1,
-Low_Design_regMain_3</t>
   </si>
   <si>
     <r>
@@ -454,32 +428,75 @@
     </r>
   </si>
   <si>
-    <t>CRs_2.3, CRs_4.2</t>
-  </si>
-  <si>
     <t>Low_Design_Display_ClientName_Date_1,
 Low_Design_ViewClientMain_1</t>
   </si>
   <si>
-    <t>Low_Design_closeAccount_Admin_1,
-Low_Design_ViewAdminMain_1</t>
-  </si>
-  <si>
-    <t>Low_Design_transferMoney_Client_1,
-Low_Design_ViewClientMain_1</t>
-  </si>
-  <si>
     <t>Low_Design_ViewAccountsList_Client_1</t>
   </si>
   <si>
     <t>Low_Design_ViewTransaction_1,
 Low_Design_getBalance_Client_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Low_Design_regMain_3</t>
+  </si>
+  <si>
+    <t>Low_Design_reg_1, Low_Design_reg_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Low_Design_loginMain_1
+</t>
+  </si>
+  <si>
+    <t>Low_Design_login_1,
+Low_Design_login_admin_2,
+Low_Design_login_client_3,
+Low_Design_login_admin_1,
+Low_Design_login_client_2</t>
+  </si>
+  <si>
+    <t>Low_Design_login_1,
+Low_Design_login_client_2, 
+Low_Design_login_admin_1</t>
+  </si>
+  <si>
+    <t>Low_Design_login_client_2,
+Low_Design_login_admin_1</t>
+  </si>
+  <si>
+    <t>classDiagram_viewAccount_Admin_001</t>
+  </si>
+  <si>
+    <t>view_client_accounts,
+View_trans_001</t>
+  </si>
+  <si>
+    <t>classDiagram_viewAccount_Client_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Low_Design_ViewClientMain_1,
+Low_Design_transferMoney_Client_2</t>
+  </si>
+  <si>
+    <t>Low_Design_transferMoney_Client_2,
+Low_Design_ViewClientMain_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Low_Design_ViewAdminMain_1</t>
+  </si>
+  <si>
+    <t>Low_Design_closeAccount_Admin_1,
+Low_Design_closeAccount_Admin_2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -647,7 +664,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -672,6 +689,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -796,6 +816,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -831,6 +868,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1006,19 +1060,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="59.42578125" defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="36.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30" style="2" customWidth="1"/>
     <col min="4" max="4" width="50.140625" style="2" customWidth="1"/>
     <col min="5" max="6" width="59.42578125" style="4"/>
     <col min="7" max="16384" width="59.42578125" style="2"/>
@@ -1026,7 +1080,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>12</v>
@@ -1044,12 +1098,12 @@
         <v>1</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>54</v>
+      <c r="A2" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>34</v>
@@ -1061,20 +1115,20 @@
         <v>3</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F2" s="4"/>
-      <c r="G2" s="11" t="s">
-        <v>61</v>
+      <c r="G2" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -1083,39 +1137,37 @@
         <v>5</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="12"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="12"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>55</v>
+      <c r="A5" s="18" t="s">
+        <v>53</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>14</v>
@@ -1127,101 +1179,93 @@
         <v>7</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="12" t="s">
-        <v>60</v>
+      <c r="G5" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
       <c r="B6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="12"/>
+        <v>51</v>
+      </c>
+      <c r="G6" s="13"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="C7" s="11"/>
       <c r="D7" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="12"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="C8" s="11"/>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="12"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="C9" s="11"/>
       <c r="D9" s="8" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="12"/>
+      <c r="G9" s="13"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>73</v>
+      <c r="A10" s="17" t="s">
+        <v>68</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>30</v>
@@ -1230,79 +1274,83 @@
         <v>26</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
+      <c r="G10" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
+      <c r="G11" s="13" t="s">
+        <v>83</v>
+      </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="8" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="10"/>
+      <c r="G12" s="13"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
+      <c r="G13" s="13"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="8" t="s">
         <v>30</v>
       </c>
@@ -1310,41 +1358,45 @@
         <v>26</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
+      <c r="G14" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>56</v>
+      <c r="A15" s="19" t="s">
+        <v>54</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="F15" s="8"/>
-      <c r="G15" s="4"/>
+      <c r="G15" s="13" t="s">
+        <v>83</v>
+      </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>25</v>
@@ -1353,125 +1405,125 @@
         <v>17</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F16" s="8"/>
-      <c r="G16" s="4"/>
+      <c r="G16" s="13"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F17" s="8"/>
-      <c r="G17" s="4"/>
+      <c r="G17" s="13"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F18" s="8"/>
-      <c r="G18" s="4"/>
+      <c r="G18" s="13"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F19" s="8"/>
-      <c r="G19" s="4"/>
+      <c r="G19" s="13"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
         <v>36</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F20" s="8"/>
-      <c r="G20" s="4"/>
+      <c r="G20" s="13"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8" t="s">
         <v>37</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F21" s="8"/>
-      <c r="G21" s="4"/>
+      <c r="G21" s="13"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
     </row>
     <row r="22" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8" t="s">
         <v>38</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F22" s="8"/>
-      <c r="G22" s="4"/>
+      <c r="G22" s="13"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>32</v>
@@ -1483,17 +1535,17 @@
         <v>21</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F23" s="8"/>
-      <c r="G23" s="4"/>
+      <c r="G23" s="13"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
     </row>
     <row r="24" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>58</v>
+      <c r="A24" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>30</v>
@@ -1505,16 +1557,18 @@
         <v>22</v>
       </c>
       <c r="E24" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="4"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="8" t="s">
         <v>30</v>
       </c>
@@ -1523,16 +1577,16 @@
         <v>23</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F25" s="8"/>
-      <c r="G25" s="4"/>
+      <c r="G25" s="13"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
+      <c r="A26" s="14"/>
       <c r="B26" s="8" t="s">
         <v>30</v>
       </c>
@@ -1541,16 +1595,16 @@
         <v>24</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F26" s="8"/>
-      <c r="G26" s="4"/>
+      <c r="G26" s="13"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
     </row>
     <row r="27" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="8" t="s">
         <v>30</v>
       </c>
@@ -1559,16 +1613,16 @@
         <v>39</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F27" s="8"/>
-      <c r="G27" s="4"/>
+      <c r="G27" s="13"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="8" t="s">
         <v>30</v>
       </c>
@@ -1579,16 +1633,16 @@
         <v>40</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F28" s="8"/>
-      <c r="G28" s="4"/>
+      <c r="G28" s="13"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
     </row>
     <row r="29" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="8" t="s">
         <v>30</v>
       </c>
@@ -1597,16 +1651,16 @@
         <v>41</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="F29" s="8"/>
-      <c r="G29" s="4"/>
+      <c r="G29" s="13"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
     </row>
     <row r="30" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="8" t="s">
         <v>30</v>
       </c>
@@ -1615,16 +1669,16 @@
         <v>42</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F30" s="8"/>
-      <c r="G30" s="4"/>
+      <c r="G30" s="13"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
     </row>
     <row r="31" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="8" t="s">
         <v>30</v>
       </c>
@@ -1633,10 +1687,10 @@
         <v>43</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F31" s="8"/>
-      <c r="G31" s="5"/>
+      <c r="G31" s="13"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
@@ -1653,21 +1707,21 @@
         <v>15</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J32"/>
-  <mergeCells count="7">
+  <autoFilter ref="A1:J32" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <mergeCells count="10">
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="G5:G9"/>
     <mergeCell ref="A24:A31"/>
@@ -1675,6 +1729,9 @@
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="A15:A22"/>
+    <mergeCell ref="G15:G23"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="G24:G31"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Requirements/RTM.xlsx
+++ b/Requirements/RTM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C6A1CA-A519-4306-882E-B283F3A4974F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B4467B-DC19-4B25-A95F-3791BF6E89F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1064,8 +1064,8 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="59.42578125" defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Requirements/RTM.xlsx
+++ b/Requirements/RTM.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B4467B-DC19-4B25-A95F-3791BF6E89F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="86">
   <si>
     <t>SRS</t>
   </si>
@@ -155,9 +154,6 @@
     <t>Logout</t>
   </si>
   <si>
-    <t>High_level_reg_1</t>
-  </si>
-  <si>
     <t>Low_Design_ViewAllAccounts_Admin_1</t>
   </si>
   <si>
@@ -167,17 +163,9 @@
     <t>Low_Design_closeAccount_Admin_2</t>
   </si>
   <si>
-    <t>High_level_Logout_admin_1,
-High_level_Logout_client_1</t>
-  </si>
-  <si>
     <t>Low_Design_addAccount_client_1</t>
   </si>
   <si>
-    <t>High_level_login_client_1,
-High_level_login_admin_1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Register</t>
   </si>
   <si>
@@ -378,9 +366,6 @@
   </si>
   <si>
     <t>Low_Design_transferMoney_Client_1</t>
-  </si>
-  <si>
-    <t>Low_Design_Logout_1</t>
   </si>
   <si>
     <r>
@@ -441,9 +426,6 @@
   <si>
     <t xml:space="preserve">
 Low_Design_regMain_3</t>
-  </si>
-  <si>
-    <t>Low_Design_reg_1, Low_Design_reg_2</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -452,51 +434,59 @@
   </si>
   <si>
     <t>Low_Design_login_1,
-Low_Design_login_admin_2,
-Low_Design_login_client_3,
+Low_Design_login_client_2, 
+Low_Design_login_admin_1</t>
+  </si>
+  <si>
+    <t>Low_Design_login_client_2,
+Low_Design_login_admin_1</t>
+  </si>
+  <si>
+    <t>classDiagram_viewAccount_Admin_001</t>
+  </si>
+  <si>
+    <t>view_client_accounts,
+View_trans_001</t>
+  </si>
+  <si>
+    <t>classDiagram_viewAccount_Client_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Low_Design_ViewClientMain_1,
+Low_Design_transferMoney_Client_2</t>
+  </si>
+  <si>
+    <t>Low_Design_transferMoney_Client_2,
+Low_Design_ViewClientMain_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Low_Design_ViewAdminMain_1</t>
+  </si>
+  <si>
+    <t>Low_Design_closeAccount_Admin_1,
+Low_Design_closeAccount_Admin_2</t>
+  </si>
+  <si>
+    <t>High_Design_navigate_to_view_account_page_1,
+High_Design_navigate_to_admin_page_1</t>
+  </si>
+  <si>
+    <t>High_level_navigate_after_register_1</t>
+  </si>
+  <si>
+    <t>Low_Design_login_1,
 Low_Design_login_admin_1,
 Low_Design_login_client_2</t>
   </si>
   <si>
-    <t>Low_Design_login_1,
-Low_Design_login_client_2, 
-Low_Design_login_admin_1</t>
-  </si>
-  <si>
-    <t>Low_Design_login_client_2,
-Low_Design_login_admin_1</t>
-  </si>
-  <si>
-    <t>classDiagram_viewAccount_Admin_001</t>
-  </si>
-  <si>
-    <t>view_client_accounts,
-View_trans_001</t>
-  </si>
-  <si>
-    <t>classDiagram_viewAccount_Client_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Low_Design_ViewClientMain_1,
-Low_Design_transferMoney_Client_2</t>
-  </si>
-  <si>
-    <t>Low_Design_transferMoney_Client_2,
-Low_Design_ViewClientMain_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Low_Design_ViewAdminMain_1</t>
-  </si>
-  <si>
-    <t>Low_Design_closeAccount_Admin_1,
-Low_Design_closeAccount_Admin_2</t>
+    <t>High_Design_Logout_1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -816,23 +806,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -868,23 +841,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1060,12 +1016,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="59.42578125" defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1080,7 +1036,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>12</v>
@@ -1098,12 +1054,12 @@
         <v>1</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>34</v>
@@ -1115,11 +1071,11 @@
         <v>3</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -1137,10 +1093,10 @@
         <v>5</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="4"/>
@@ -1157,7 +1113,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="13"/>
@@ -1167,7 +1123,7 @@
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>14</v>
@@ -1179,11 +1135,11 @@
         <v>7</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -1199,10 +1155,10 @@
         <v>11</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="4"/>
@@ -1219,7 +1175,7 @@
         <v>29</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="13"/>
@@ -1237,7 +1193,7 @@
         <v>13</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="13"/>
@@ -1255,7 +1211,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="13"/>
@@ -1265,7 +1221,7 @@
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>30</v>
@@ -1274,14 +1230,14 @@
         <v>26</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -1293,17 +1249,17 @@
         <v>31</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="13" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -1318,10 +1274,10 @@
         <v>10</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="13"/>
@@ -1335,13 +1291,13 @@
         <v>31</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="13"/>
@@ -1358,14 +1314,14 @@
         <v>26</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -1373,21 +1329,21 @@
     </row>
     <row r="15" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="13" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -1396,7 +1352,7 @@
     <row r="16" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>25</v>
@@ -1405,7 +1361,7 @@
         <v>17</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="13"/>
@@ -1416,14 +1372,14 @@
     <row r="17" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="13"/>
@@ -1434,14 +1390,14 @@
     <row r="18" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="13"/>
@@ -1452,14 +1408,14 @@
     <row r="19" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="13"/>
@@ -1470,14 +1426,14 @@
     <row r="20" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
         <v>36</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="13"/>
@@ -1488,14 +1444,14 @@
     <row r="21" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8" t="s">
         <v>37</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="13"/>
@@ -1506,14 +1462,14 @@
     <row r="22" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8" t="s">
         <v>38</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="13"/>
@@ -1523,7 +1479,7 @@
     </row>
     <row r="23" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>32</v>
@@ -1535,7 +1491,7 @@
         <v>21</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="13"/>
@@ -1545,7 +1501,7 @@
     </row>
     <row r="24" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>30</v>
@@ -1557,11 +1513,11 @@
         <v>22</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="13" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -1577,7 +1533,7 @@
         <v>23</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="13"/>
@@ -1595,7 +1551,7 @@
         <v>24</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="13"/>
@@ -1613,7 +1569,7 @@
         <v>39</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="13"/>
@@ -1633,7 +1589,7 @@
         <v>40</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="13"/>
@@ -1651,7 +1607,7 @@
         <v>41</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="13"/>
@@ -1669,7 +1625,7 @@
         <v>42</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="13"/>
@@ -1687,7 +1643,7 @@
         <v>43</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="13"/>
@@ -1706,21 +1662,22 @@
       <c r="D32" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="8" t="s">
-        <v>70</v>
-      </c>
+      <c r="E32" s="8"/>
       <c r="F32" s="8" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
     </row>
+    <row r="33" spans="6:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F33" s="8"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J32" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J32"/>
   <mergeCells count="10">
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="G5:G9"/>

--- a/Requirements/RTM.xlsx
+++ b/Requirements/RTM.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB20867E-AD45-4297-83D4-83A9F90CD4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="102">
   <si>
     <t>SRS</t>
   </si>
@@ -47,9 +48,6 @@
   </si>
   <si>
     <t>new_account_001</t>
-  </si>
-  <si>
-    <t>view_client_accounts</t>
   </si>
   <si>
     <t>SRS_Login_002</t>
@@ -368,62 +366,6 @@
     <t>Low_Design_transferMoney_Client_1</t>
   </si>
   <si>
-    <r>
-      <t>SRS_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>View Account</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>_003</t>
-    </r>
-  </si>
-  <si>
-    <t>Low_Design_Display_ClientName_Date_1,
-Low_Design_ViewClientMain_1</t>
-  </si>
-  <si>
-    <t>Low_Design_ViewAccountsList_Client_1</t>
-  </si>
-  <si>
-    <t>Low_Design_ViewTransaction_1,
-Low_Design_getBalance_Client_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 Low_Design_regMain_3</t>
   </si>
@@ -445,10 +387,6 @@
     <t>classDiagram_viewAccount_Admin_001</t>
   </si>
   <si>
-    <t>view_client_accounts,
-View_trans_001</t>
-  </si>
-  <si>
     <t>classDiagram_viewAccount_Client_001</t>
   </si>
   <si>
@@ -481,12 +419,86 @@
   </si>
   <si>
     <t>High_Design_Logout_1</t>
+  </si>
+  <si>
+    <t>Low_Design_ViewAccountNumber_Client_1</t>
+  </si>
+  <si>
+    <t>SRS_AddNewAccount _002</t>
+  </si>
+  <si>
+    <t>view_client_account,
+View_trans_001</t>
+  </si>
+  <si>
+    <t>ERD</t>
+  </si>
+  <si>
+    <t>Use Case</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Wire Frame</t>
+  </si>
+  <si>
+    <t>ERD_001</t>
+  </si>
+  <si>
+    <t>Low_Design_Display_ClientName_Date_1,
+Low_Design_ViewClientMain_1
+Low_Design_ViewAccountNumber_Client_1
+Low_Design_ViewTransaction_1,
+Low_Design_getBalance_Client_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">view_client_account,
+</t>
+  </si>
+  <si>
+    <t>UseCase_001</t>
+  </si>
+  <si>
+    <t>registerClient</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>viewAdmin</t>
+  </si>
+  <si>
+    <t>viewClient</t>
+  </si>
+  <si>
+    <t>logout</t>
+  </si>
+  <si>
+    <t>Register_wireFrame_1</t>
+  </si>
+  <si>
+    <t>Login_wireFrame_1</t>
+  </si>
+  <si>
+    <t>viewAdmin_wireFrame_1</t>
+  </si>
+  <si>
+    <t>ViewClient_wireFrame_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">viewAdmin_wireFrame_1 ,
+ViewClient_wireFrame_1
+</t>
+  </si>
+  <si>
+    <t>Test Cases</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -671,9 +683,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -711,6 +720,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -806,6 +818,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -841,6 +870,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1016,12 +1062,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="59.42578125" defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1034,12 +1080,12 @@
     <col min="7" max="16384" width="59.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -1048,21 +1094,36 @@
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>49</v>
+        <v>57</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -1070,21 +1131,28 @@
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>71</v>
+      <c r="E2" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="F2" s="4"/>
-      <c r="G2" s="12" t="s">
-        <v>56</v>
+      <c r="G2" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="I2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
       <c r="B3" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -1092,41 +1160,45 @@
       <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>60</v>
+      <c r="E3" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="4"/>
+        <v>77</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
       <c r="B4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>60</v>
+      <c r="E4" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="13"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>50</v>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>8</v>
@@ -1134,561 +1206,654 @@
       <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>72</v>
+      <c r="E5" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="4"/>
+      <c r="G5" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
+      <c r="J5" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
       <c r="B6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
       <c r="B7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="C7" s="9"/>
       <c r="D7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>73</v>
+        <v>28</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="13"/>
+      <c r="G7" s="12"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="8" t="s">
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="12"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="13"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+    </row>
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="12"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="F16" s="7"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+    </row>
+    <row r="17" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-    </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-    </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="13"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="12"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8" t="s">
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+    </row>
+    <row r="18" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="13"/>
+      <c r="E18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="12"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="13"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="12"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8" t="s">
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="13"/>
+      <c r="E20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="12"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8" t="s">
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="13"/>
+      <c r="E21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="12"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="8" t="s">
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
+      <c r="B23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+    </row>
+    <row r="24" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="13"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="12"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="13"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+    </row>
+    <row r="26" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="12"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="13"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+    </row>
+    <row r="27" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="12"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="13"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+    </row>
+    <row r="28" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="12"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-    </row>
-    <row r="29" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8" t="s">
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+    </row>
+    <row r="29" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I29" s="5"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+    </row>
+    <row r="30" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="B30" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-    </row>
-    <row r="30" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="13"/>
+      <c r="E30" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="12"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-    </row>
-    <row r="31" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="13"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+    </row>
+    <row r="31" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+      <c r="B31" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="12"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-    </row>
-    <row r="32" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="8" t="s">
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+    </row>
+    <row r="32" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>57</v>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
+      <c r="I32" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="33" spans="6:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F33" s="8"/>
+      <c r="F33" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J32"/>
-  <mergeCells count="10">
+  <autoFilter ref="A1:J32" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <mergeCells count="21">
+    <mergeCell ref="J24:J31"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="K5:K9"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K14:K23"/>
+    <mergeCell ref="K24:K31"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="J5:J9"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="G14:G23"/>
+    <mergeCell ref="J14:J23"/>
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="G5:G9"/>
     <mergeCell ref="A24:A31"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A10:A13"/>
     <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A15:A22"/>
-    <mergeCell ref="G15:G23"/>
-    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="G11:G12"/>
     <mergeCell ref="G24:G31"/>
+    <mergeCell ref="A22:A23"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Requirements/RTM.xlsx
+++ b/Requirements/RTM.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB20867E-AD45-4297-83D4-83A9F90CD4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$32</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -498,7 +497,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -666,7 +665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -698,12 +697,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -723,6 +725,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -818,23 +823,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -870,23 +858,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1062,12 +1033,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="59.42578125" defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1075,12 +1046,14 @@
     <col min="1" max="1" width="26.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="36.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="30" style="2" customWidth="1"/>
-    <col min="4" max="4" width="50.140625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="59.42578125" style="4"/>
-    <col min="7" max="16384" width="59.42578125" style="2"/>
+    <col min="4" max="5" width="50.140625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="59.42578125" style="4"/>
+    <col min="8" max="11" width="59.42578125" style="2"/>
+    <col min="12" max="12" width="57.28515625" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="59.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>53</v>
       </c>
@@ -1094,32 +1067,32 @@
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1131,26 +1104,27 @@
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="4"/>
+      <c r="J2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
       <c r="B3" s="4" t="s">
         <v>33</v>
       </c>
@@ -1160,22 +1134,23 @@
       <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="12"/>
+      <c r="I3" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="12"/>
+      <c r="J3" s="4"/>
       <c r="K3" s="12"/>
-    </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+      <c r="L3" s="12"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
       <c r="B4" s="4" t="s">
         <v>32</v>
       </c>
@@ -1183,18 +1158,19 @@
       <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="11"/>
+      <c r="F4" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="12"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="12"/>
+      <c r="J4" s="4"/>
       <c r="K4" s="12"/>
-    </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="L4" s="12"/>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>49</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1206,26 +1182,27 @@
       <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="11"/>
+      <c r="F5" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="4"/>
+      <c r="H5" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="4"/>
+      <c r="K5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="L5" s="12" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
       <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
@@ -1233,22 +1210,23 @@
       <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="11"/>
+      <c r="F6" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="12"/>
+      <c r="I6" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="12"/>
+      <c r="J6" s="4"/>
       <c r="K6" s="12"/>
-    </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
@@ -1256,18 +1234,19 @@
       <c r="D7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="12"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="12"/>
+      <c r="J7" s="4"/>
       <c r="K7" s="12"/>
-    </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
       <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
@@ -1275,18 +1254,19 @@
       <c r="D8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="4"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="12"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="12"/>
+      <c r="J8" s="4"/>
       <c r="K8" s="12"/>
-    </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
       <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
@@ -1294,18 +1274,19 @@
       <c r="D9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="4"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="12"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="12"/>
+      <c r="J9" s="4"/>
       <c r="K9" s="12"/>
-    </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
         <v>64</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1317,26 +1298,27 @@
       <c r="D10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="7"/>
+      <c r="H10" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="I10" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="8"/>
+      <c r="K10" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="L10" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
       <c r="B11" s="7" t="s">
         <v>30</v>
       </c>
@@ -1346,28 +1328,29 @@
       <c r="D11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="7"/>
+      <c r="H11" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="I11" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="J11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="K11" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="L11" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
       <c r="B12" s="7" t="s">
         <v>30</v>
       </c>
@@ -1377,20 +1360,21 @@
       <c r="D12" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="7"/>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="8" t="s">
+      <c r="G12" s="7"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="12"/>
+      <c r="J12" s="8"/>
       <c r="K12" s="12"/>
-    </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
       <c r="B13" s="7" t="s">
         <v>29</v>
       </c>
@@ -1400,26 +1384,27 @@
       <c r="D13" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="7"/>
+      <c r="F13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="7"/>
+      <c r="H13" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="I13" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="8"/>
+      <c r="K13" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="L13" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+    <row r="14" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
         <v>50</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1429,26 +1414,28 @@
       <c r="D14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="7"/>
+      <c r="F14" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="7"/>
+      <c r="H14" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="5"/>
+      <c r="J14" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="K14" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="L14" s="12" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
+      <c r="M14" s="21"/>
+    </row>
+    <row r="15" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
       <c r="B15" s="7" t="s">
         <v>58</v>
       </c>
@@ -1458,20 +1445,22 @@
       <c r="D15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="7"/>
+      <c r="F15" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="10" t="s">
+      <c r="G15" s="7"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J15" s="12"/>
       <c r="K15" s="12"/>
-    </row>
-    <row r="16" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="21"/>
+    </row>
+    <row r="16" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
       <c r="B16" s="7" t="s">
         <v>58</v>
       </c>
@@ -1479,20 +1468,22 @@
       <c r="D16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="7"/>
+      <c r="F16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="10" t="s">
+      <c r="G16" s="7"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="12"/>
+      <c r="J16" s="5"/>
       <c r="K16" s="12"/>
-    </row>
-    <row r="17" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="21"/>
+    </row>
+    <row r="17" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
       <c r="B17" s="7" t="s">
         <v>58</v>
       </c>
@@ -1500,18 +1491,20 @@
       <c r="D17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="7"/>
+      <c r="F17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="5"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="12"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="12"/>
+      <c r="J17" s="5"/>
       <c r="K17" s="12"/>
-    </row>
-    <row r="18" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="21"/>
+    </row>
+    <row r="18" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
       <c r="B18" s="7" t="s">
         <v>58</v>
       </c>
@@ -1519,18 +1512,20 @@
       <c r="D18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="7"/>
+      <c r="F18" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="5"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="12"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="12"/>
+      <c r="J18" s="5"/>
       <c r="K18" s="12"/>
-    </row>
-    <row r="19" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="21"/>
+    </row>
+    <row r="19" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
       <c r="B19" s="7" t="s">
         <v>58</v>
       </c>
@@ -1538,18 +1533,20 @@
       <c r="D19" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="7"/>
+      <c r="F19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="5"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="12"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="12"/>
+      <c r="J19" s="5"/>
       <c r="K19" s="12"/>
-    </row>
-    <row r="20" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="21"/>
+    </row>
+    <row r="20" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
       <c r="B20" s="7" t="s">
         <v>58</v>
       </c>
@@ -1557,18 +1554,20 @@
       <c r="D20" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="7"/>
+      <c r="F20" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="5"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="12"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="12"/>
+      <c r="J20" s="5"/>
       <c r="K20" s="12"/>
-    </row>
-    <row r="21" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="21"/>
+    </row>
+    <row r="21" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
       <c r="B21" s="7" t="s">
         <v>58</v>
       </c>
@@ -1576,18 +1575,20 @@
       <c r="D21" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="7"/>
+      <c r="F21" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="5"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="12"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="12"/>
+      <c r="J21" s="5"/>
       <c r="K21" s="12"/>
-    </row>
-    <row r="22" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+      <c r="L21" s="12"/>
+      <c r="M21" s="21"/>
+    </row>
+    <row r="22" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
         <v>51</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -1599,20 +1600,22 @@
       <c r="D22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="7"/>
+      <c r="F22" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="10" t="s">
+      <c r="G22" s="7"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="12"/>
+      <c r="J22" s="5"/>
       <c r="K22" s="12"/>
-    </row>
-    <row r="23" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="21"/>
+    </row>
+    <row r="23" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
       <c r="B23" s="7" t="s">
         <v>31</v>
       </c>
@@ -1620,18 +1623,20 @@
       <c r="D23" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="7"/>
+      <c r="F23" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="12"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="5"/>
       <c r="K23" s="12"/>
-    </row>
-    <row r="24" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="L23" s="12"/>
+      <c r="M23" s="21"/>
+    </row>
+    <row r="24" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
         <v>52</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -1643,26 +1648,27 @@
       <c r="D24" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="7"/>
+      <c r="F24" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="7"/>
+      <c r="H24" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H24" s="5"/>
-      <c r="I24" s="10" t="s">
+      <c r="I24" s="5"/>
+      <c r="J24" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="J24" s="12" t="s">
+      <c r="K24" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="K24" s="12" t="s">
+      <c r="L24" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
+    <row r="25" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
       <c r="B25" s="7" t="s">
         <v>29</v>
       </c>
@@ -1670,18 +1676,19 @@
       <c r="D25" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="7"/>
+      <c r="F25" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="12"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="12"/>
+      <c r="J25" s="5"/>
       <c r="K25" s="12"/>
-    </row>
-    <row r="26" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
+      <c r="L25" s="12"/>
+    </row>
+    <row r="26" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
       <c r="B26" s="7" t="s">
         <v>29</v>
       </c>
@@ -1689,18 +1696,19 @@
       <c r="D26" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="7"/>
+      <c r="F26" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="5"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="12"/>
       <c r="I26" s="5"/>
-      <c r="J26" s="12"/>
+      <c r="J26" s="5"/>
       <c r="K26" s="12"/>
-    </row>
-    <row r="27" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
+      <c r="L26" s="12"/>
+    </row>
+    <row r="27" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
       <c r="B27" s="7" t="s">
         <v>29</v>
       </c>
@@ -1708,18 +1716,19 @@
       <c r="D27" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="7"/>
+      <c r="F27" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="5"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="12"/>
       <c r="I27" s="5"/>
-      <c r="J27" s="12"/>
+      <c r="J27" s="5"/>
       <c r="K27" s="12"/>
-    </row>
-    <row r="28" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
+      <c r="L27" s="12"/>
+    </row>
+    <row r="28" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
       <c r="B28" s="7" t="s">
         <v>29</v>
       </c>
@@ -1729,18 +1738,19 @@
       <c r="D28" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="7"/>
+      <c r="F28" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="5"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="12"/>
       <c r="I28" s="5"/>
-      <c r="J28" s="12"/>
+      <c r="J28" s="5"/>
       <c r="K28" s="12"/>
-    </row>
-    <row r="29" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
+      <c r="L28" s="12"/>
+    </row>
+    <row r="29" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
       <c r="B29" s="7" t="s">
         <v>29</v>
       </c>
@@ -1748,20 +1758,21 @@
       <c r="D29" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="7"/>
+      <c r="F29" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="10" t="s">
+      <c r="G29" s="7"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="I29" s="5"/>
-      <c r="J29" s="12"/>
+      <c r="J29" s="5"/>
       <c r="K29" s="12"/>
-    </row>
-    <row r="30" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
+      <c r="L29" s="12"/>
+    </row>
+    <row r="30" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
       <c r="B30" s="7" t="s">
         <v>29</v>
       </c>
@@ -1769,18 +1780,19 @@
       <c r="D30" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="7"/>
+      <c r="F30" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="5"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="12"/>
       <c r="I30" s="5"/>
-      <c r="J30" s="12"/>
+      <c r="J30" s="5"/>
       <c r="K30" s="12"/>
-    </row>
-    <row r="31" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
+      <c r="L30" s="12"/>
+    </row>
+    <row r="31" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
       <c r="B31" s="7" t="s">
         <v>29</v>
       </c>
@@ -1788,17 +1800,18 @@
       <c r="D31" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="7"/>
+      <c r="F31" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="5"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="12"/>
       <c r="I31" s="5"/>
-      <c r="J31" s="12"/>
+      <c r="J31" s="5"/>
       <c r="K31" s="12"/>
-    </row>
-    <row r="32" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L31" s="12"/>
+    </row>
+    <row r="32" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>43</v>
       </c>
@@ -1810,50 +1823,51 @@
         <v>14</v>
       </c>
       <c r="E32" s="7"/>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="7"/>
+      <c r="G32" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="H32" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H32" s="5"/>
-      <c r="I32" s="10" t="s">
+      <c r="I32" s="5"/>
+      <c r="J32" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="J32" s="10" t="s">
+      <c r="K32" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="6:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F33" s="7"/>
+    <row r="33" spans="7:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G33" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J32" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K32"/>
   <mergeCells count="21">
-    <mergeCell ref="J24:J31"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="K5:K9"/>
-    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="H14:H23"/>
     <mergeCell ref="K14:K23"/>
-    <mergeCell ref="K24:K31"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="J5:J9"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="G14:G23"/>
-    <mergeCell ref="J14:J23"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G5:G9"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="H5:H9"/>
     <mergeCell ref="A24:A31"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="A14:A21"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G24:G31"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H24:H31"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="K24:K31"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="L5:L9"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L14:L23"/>
+    <mergeCell ref="L24:L31"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="K5:K9"/>
+    <mergeCell ref="K11:K12"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Requirements/RTM.xlsx
+++ b/Requirements/RTM.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="109">
   <si>
     <t>SRS</t>
   </si>
@@ -493,12 +493,40 @@
   <si>
     <t>Test Cases</t>
   </si>
+  <si>
+    <t>TC_PerformTransaction_01</t>
+  </si>
+  <si>
+    <t>TC_PerformTransaction_02</t>
+  </si>
+  <si>
+    <t>TC_PerformTransaction_03</t>
+  </si>
+  <si>
+    <t>TC_PerformTransaction_02
+TC_PerformTransaction_05
+TC_PerformTransaction_06</t>
+  </si>
+  <si>
+    <t>TC_PerformTransaction_07</t>
+  </si>
+  <si>
+    <t>TC_PerformTransaction_08
+TC_PerformTransaction_09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_PerformTransaction_10
+TC_PerformTransaction_11
+TC_PerformTransaction_12
+TC_PerformTransaction_13
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -577,6 +605,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -665,7 +701,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -700,6 +736,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -727,7 +766,10 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1038,7 +1080,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="59.42578125" defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1092,7 +1134,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>48</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1109,22 +1151,22 @@
         <v>66</v>
       </c>
       <c r="G2" s="4"/>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="14" t="s">
         <v>55</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="14" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="4" t="s">
         <v>33</v>
       </c>
@@ -1141,16 +1183,16 @@
       <c r="G3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="12"/>
+      <c r="H3" s="13"/>
       <c r="I3" s="4" t="s">
         <v>87</v>
       </c>
       <c r="J3" s="4"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="4" t="s">
         <v>32</v>
       </c>
@@ -1163,14 +1205,14 @@
         <v>59</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="12"/>
+      <c r="H4" s="13"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>49</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1187,22 +1229,22 @@
         <v>67</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="13" t="s">
         <v>54</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>90</v>
       </c>
       <c r="J5" s="4"/>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="13" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
@@ -1217,16 +1259,16 @@
       <c r="G6" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H6" s="12"/>
+      <c r="H6" s="13"/>
       <c r="I6" s="4" t="s">
         <v>87</v>
       </c>
       <c r="J6" s="4"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
@@ -1239,14 +1281,14 @@
         <v>68</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="12"/>
+      <c r="H7" s="13"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
@@ -1259,14 +1301,14 @@
         <v>69</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="12"/>
+      <c r="H8" s="13"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
@@ -1279,14 +1321,14 @@
         <v>69</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="H9" s="12"/>
+      <c r="H9" s="13"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
     </row>
     <row r="10" spans="1:13" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="18" t="s">
         <v>64</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1318,7 +1360,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="1" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="7" t="s">
         <v>30</v>
       </c>
@@ -1333,7 +1375,7 @@
         <v>88</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="13" t="s">
         <v>71</v>
       </c>
       <c r="I11" s="8" t="s">
@@ -1342,15 +1384,15 @@
       <c r="J11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="L11" s="13" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="7" t="s">
         <v>30</v>
       </c>
@@ -1365,16 +1407,16 @@
         <v>80</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="H12" s="12"/>
+      <c r="H12" s="13"/>
       <c r="I12" s="8" t="s">
         <v>87</v>
       </c>
       <c r="J12" s="8"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
     </row>
     <row r="13" spans="1:13" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="7" t="s">
         <v>29</v>
       </c>
@@ -1404,7 +1446,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="20" t="s">
         <v>50</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1414,28 +1456,30 @@
       <c r="D14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="7"/>
+      <c r="E14" s="23" t="s">
+        <v>103</v>
+      </c>
       <c r="F14" s="7" t="s">
         <v>72</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="13" t="s">
         <v>71</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="K14" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="L14" s="12" t="s">
+      <c r="L14" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="M14" s="21"/>
+      <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="7" t="s">
         <v>58</v>
       </c>
@@ -1445,45 +1489,49 @@
       <c r="D15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="7"/>
+      <c r="E15" s="23" t="s">
+        <v>102</v>
+      </c>
       <c r="F15" s="7" t="s">
         <v>73</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="12"/>
+      <c r="H15" s="13"/>
       <c r="I15" s="5"/>
       <c r="J15" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="21"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="7" t="s">
         <v>58</v>
       </c>
       <c r="C16" s="7"/>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="7"/>
+      <c r="E16" s="23" t="s">
+        <v>102</v>
+      </c>
       <c r="F16" s="7" t="s">
         <v>65</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="H16" s="12"/>
+      <c r="H16" s="13"/>
       <c r="I16" s="11" t="s">
         <v>87</v>
       </c>
       <c r="J16" s="5"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="21"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="7" t="s">
         <v>58</v>
       </c>
@@ -1491,20 +1539,22 @@
       <c r="D17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="7"/>
+      <c r="E17" s="22" t="s">
+        <v>105</v>
+      </c>
       <c r="F17" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="H17" s="12"/>
+      <c r="H17" s="13"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="21"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="7" t="s">
         <v>58</v>
       </c>
@@ -1512,20 +1562,22 @@
       <c r="D18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="7"/>
+      <c r="E18" s="23" t="s">
+        <v>104</v>
+      </c>
       <c r="F18" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="H18" s="12"/>
+      <c r="H18" s="13"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="21"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="7" t="s">
         <v>58</v>
       </c>
@@ -1533,20 +1585,22 @@
       <c r="D19" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="7"/>
+      <c r="E19" s="23" t="s">
+        <v>106</v>
+      </c>
       <c r="F19" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G19" s="7"/>
-      <c r="H19" s="12"/>
+      <c r="H19" s="13"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="21"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="7" t="s">
         <v>58</v>
       </c>
@@ -1554,20 +1608,22 @@
       <c r="D20" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="7"/>
+      <c r="E20" s="22" t="s">
+        <v>107</v>
+      </c>
       <c r="F20" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G20" s="7"/>
-      <c r="H20" s="12"/>
+      <c r="H20" s="13"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="21"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="7" t="s">
         <v>58</v>
       </c>
@@ -1575,20 +1631,22 @@
       <c r="D21" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="7"/>
+      <c r="E21" s="22" t="s">
+        <v>108</v>
+      </c>
       <c r="F21" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G21" s="7"/>
-      <c r="H21" s="12"/>
+      <c r="H21" s="13"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="21"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="21" t="s">
         <v>51</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -1605,17 +1663,17 @@
         <v>47</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="H22" s="12"/>
+      <c r="H22" s="13"/>
       <c r="I22" s="11" t="s">
         <v>87</v>
       </c>
       <c r="J22" s="5"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="21"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="7" t="s">
         <v>31</v>
       </c>
@@ -1628,15 +1686,15 @@
         <v>47</v>
       </c>
       <c r="G23" s="7"/>
-      <c r="H23" s="12"/>
+      <c r="H23" s="13"/>
       <c r="I23" s="11"/>
       <c r="J23" s="5"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="21"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="15" t="s">
         <v>52</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -1653,22 +1711,22 @@
         <v>74</v>
       </c>
       <c r="G24" s="7"/>
-      <c r="H24" s="12" t="s">
+      <c r="H24" s="13" t="s">
         <v>70</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="K24" s="12" t="s">
+      <c r="K24" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="L24" s="12" t="s">
+      <c r="L24" s="13" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="7" t="s">
         <v>29</v>
       </c>
@@ -1681,14 +1739,14 @@
         <v>46</v>
       </c>
       <c r="G25" s="7"/>
-      <c r="H25" s="12"/>
+      <c r="H25" s="13"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
     </row>
     <row r="26" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="7" t="s">
         <v>29</v>
       </c>
@@ -1701,14 +1759,14 @@
         <v>46</v>
       </c>
       <c r="G26" s="7"/>
-      <c r="H26" s="12"/>
+      <c r="H26" s="13"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
     </row>
     <row r="27" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="7" t="s">
         <v>29</v>
       </c>
@@ -1721,14 +1779,14 @@
         <v>46</v>
       </c>
       <c r="G27" s="7"/>
-      <c r="H27" s="12"/>
+      <c r="H27" s="13"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
     </row>
     <row r="28" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="7" t="s">
         <v>29</v>
       </c>
@@ -1743,14 +1801,14 @@
         <v>46</v>
       </c>
       <c r="G28" s="7"/>
-      <c r="H28" s="12"/>
+      <c r="H28" s="13"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
     </row>
     <row r="29" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="7" t="s">
         <v>29</v>
       </c>
@@ -1763,16 +1821,16 @@
         <v>75</v>
       </c>
       <c r="G29" s="7"/>
-      <c r="H29" s="12"/>
+      <c r="H29" s="13"/>
       <c r="I29" s="10" t="s">
         <v>87</v>
       </c>
       <c r="J29" s="5"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
     </row>
     <row r="30" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
+      <c r="A30" s="15"/>
       <c r="B30" s="7" t="s">
         <v>29</v>
       </c>
@@ -1785,14 +1843,14 @@
         <v>46</v>
       </c>
       <c r="G30" s="7"/>
-      <c r="H30" s="12"/>
+      <c r="H30" s="13"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
     </row>
     <row r="31" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
+      <c r="A31" s="15"/>
       <c r="B31" s="7" t="s">
         <v>29</v>
       </c>
@@ -1805,11 +1863,11 @@
         <v>46</v>
       </c>
       <c r="G31" s="7"/>
-      <c r="H31" s="12"/>
+      <c r="H31" s="13"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
     </row>
     <row r="32" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
@@ -1847,6 +1905,11 @@
   </sheetData>
   <autoFilter ref="A1:K32"/>
   <mergeCells count="21">
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="L5:L9"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L14:L23"/>
+    <mergeCell ref="L24:L31"/>
     <mergeCell ref="H14:H23"/>
     <mergeCell ref="K14:K23"/>
     <mergeCell ref="H2:H4"/>
@@ -1860,11 +1923,6 @@
     <mergeCell ref="H24:H31"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="K24:K31"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="L5:L9"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L14:L23"/>
-    <mergeCell ref="L24:L31"/>
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="K5:K9"/>
     <mergeCell ref="K11:K12"/>

--- a/Requirements/RTM.xlsx
+++ b/Requirements/RTM.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB20867E-AD45-4297-83D4-83A9F90CD4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$32</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -498,7 +497,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -666,7 +665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -698,10 +697,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -818,23 +820,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -870,23 +855,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1062,12 +1030,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="59.42578125" defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1075,9 +1043,9 @@
     <col min="1" max="1" width="26.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="36.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="30" style="2" customWidth="1"/>
-    <col min="4" max="4" width="50.140625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="59.42578125" style="4"/>
-    <col min="7" max="16384" width="59.42578125" style="2"/>
+    <col min="4" max="5" width="50.140625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="59.42578125" style="4"/>
+    <col min="8" max="16384" width="59.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1094,32 +1062,32 @@
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1131,26 +1099,27 @@
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="4"/>
+      <c r="J2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="13" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="4" t="s">
         <v>33</v>
       </c>
@@ -1160,22 +1129,23 @@
       <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="12"/>
+      <c r="I3" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="12"/>
+      <c r="J3" s="4"/>
       <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="4" t="s">
         <v>32</v>
       </c>
@@ -1183,18 +1153,19 @@
       <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="11"/>
+      <c r="F4" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="12"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="12"/>
+      <c r="J4" s="4"/>
       <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>49</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1206,26 +1177,27 @@
       <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="11"/>
+      <c r="F5" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="4"/>
+      <c r="H5" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="4"/>
+      <c r="K5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="L5" s="12" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
@@ -1233,22 +1205,23 @@
       <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="11"/>
+      <c r="F6" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="12"/>
+      <c r="I6" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="12"/>
+      <c r="J6" s="4"/>
       <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
@@ -1256,18 +1229,19 @@
       <c r="D7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="12"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="12"/>
+      <c r="J7" s="4"/>
       <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
@@ -1275,18 +1249,19 @@
       <c r="D8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="4"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="12"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="12"/>
+      <c r="J8" s="4"/>
       <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
@@ -1294,18 +1269,19 @@
       <c r="D9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="4"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="12"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="12"/>
+      <c r="J9" s="4"/>
       <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="17" t="s">
         <v>64</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1317,26 +1293,27 @@
       <c r="D10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="7"/>
+      <c r="H10" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="I10" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="8"/>
+      <c r="K10" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="L10" s="10" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="7" t="s">
         <v>30</v>
       </c>
@@ -1346,28 +1323,29 @@
       <c r="D11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="7"/>
+      <c r="H11" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="I11" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="J11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="K11" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="L11" s="12" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="7" t="s">
         <v>30</v>
       </c>
@@ -1377,20 +1355,21 @@
       <c r="D12" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="7"/>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="8" t="s">
+      <c r="G12" s="7"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="12"/>
+      <c r="J12" s="8"/>
       <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="7" t="s">
         <v>29</v>
       </c>
@@ -1400,26 +1379,27 @@
       <c r="D13" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="7"/>
+      <c r="F13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="7"/>
+      <c r="H13" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="I13" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="8"/>
+      <c r="K13" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="L13" s="10" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="19" t="s">
         <v>50</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1429,26 +1409,27 @@
       <c r="D14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="7"/>
+      <c r="F14" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="7"/>
+      <c r="H14" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="5"/>
+      <c r="J14" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="K14" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="L14" s="12" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="7" t="s">
         <v>58</v>
       </c>
@@ -1458,20 +1439,21 @@
       <c r="D15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="7"/>
+      <c r="F15" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="10" t="s">
+      <c r="G15" s="7"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="J15" s="12"/>
       <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="7" t="s">
         <v>58</v>
       </c>
@@ -1479,20 +1461,21 @@
       <c r="D16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="7"/>
+      <c r="F16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="10" t="s">
+      <c r="G16" s="7"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="12"/>
+      <c r="J16" s="5"/>
       <c r="K16" s="12"/>
-    </row>
-    <row r="17" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
+      <c r="L16" s="12"/>
+    </row>
+    <row r="17" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
       <c r="B17" s="7" t="s">
         <v>58</v>
       </c>
@@ -1500,18 +1483,19 @@
       <c r="D17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="7"/>
+      <c r="F17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="5"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="12"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="12"/>
+      <c r="J17" s="5"/>
       <c r="K17" s="12"/>
-    </row>
-    <row r="18" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
+      <c r="L17" s="12"/>
+    </row>
+    <row r="18" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
       <c r="B18" s="7" t="s">
         <v>58</v>
       </c>
@@ -1519,18 +1503,19 @@
       <c r="D18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="7"/>
+      <c r="F18" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="5"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="12"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="12"/>
+      <c r="J18" s="5"/>
       <c r="K18" s="12"/>
-    </row>
-    <row r="19" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
+      <c r="L18" s="12"/>
+    </row>
+    <row r="19" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
       <c r="B19" s="7" t="s">
         <v>58</v>
       </c>
@@ -1538,18 +1523,19 @@
       <c r="D19" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="7"/>
+      <c r="F19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="5"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="12"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="12"/>
+      <c r="J19" s="5"/>
       <c r="K19" s="12"/>
-    </row>
-    <row r="20" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
+      <c r="L19" s="12"/>
+    </row>
+    <row r="20" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
       <c r="B20" s="7" t="s">
         <v>58</v>
       </c>
@@ -1557,18 +1543,19 @@
       <c r="D20" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="7"/>
+      <c r="F20" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="5"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="12"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="12"/>
+      <c r="J20" s="5"/>
       <c r="K20" s="12"/>
-    </row>
-    <row r="21" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
+      <c r="L20" s="12"/>
+    </row>
+    <row r="21" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
       <c r="B21" s="7" t="s">
         <v>58</v>
       </c>
@@ -1576,18 +1563,19 @@
       <c r="D21" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="7"/>
+      <c r="F21" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="5"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="12"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="12"/>
+      <c r="J21" s="5"/>
       <c r="K21" s="12"/>
-    </row>
-    <row r="22" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+      <c r="L21" s="12"/>
+    </row>
+    <row r="22" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
         <v>51</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -1599,20 +1587,21 @@
       <c r="D22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="7"/>
+      <c r="F22" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="10" t="s">
+      <c r="G22" s="7"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="12"/>
+      <c r="J22" s="5"/>
       <c r="K22" s="12"/>
-    </row>
-    <row r="23" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
+      <c r="L22" s="12"/>
+    </row>
+    <row r="23" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
       <c r="B23" s="7" t="s">
         <v>31</v>
       </c>
@@ -1620,18 +1609,19 @@
       <c r="D23" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="7"/>
+      <c r="F23" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="12"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="5"/>
       <c r="K23" s="12"/>
-    </row>
-    <row r="24" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="L23" s="12"/>
+    </row>
+    <row r="24" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
         <v>52</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -1643,26 +1633,27 @@
       <c r="D24" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="7"/>
+      <c r="F24" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="7"/>
+      <c r="H24" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H24" s="5"/>
-      <c r="I24" s="10" t="s">
+      <c r="I24" s="5"/>
+      <c r="J24" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="J24" s="12" t="s">
+      <c r="K24" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="K24" s="12" t="s">
+      <c r="L24" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
+    <row r="25" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
       <c r="B25" s="7" t="s">
         <v>29</v>
       </c>
@@ -1670,18 +1661,19 @@
       <c r="D25" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="7"/>
+      <c r="F25" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="12"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="12"/>
+      <c r="J25" s="5"/>
       <c r="K25" s="12"/>
-    </row>
-    <row r="26" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
+      <c r="L25" s="12"/>
+    </row>
+    <row r="26" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
       <c r="B26" s="7" t="s">
         <v>29</v>
       </c>
@@ -1689,18 +1681,19 @@
       <c r="D26" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="7"/>
+      <c r="F26" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="5"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="12"/>
       <c r="I26" s="5"/>
-      <c r="J26" s="12"/>
+      <c r="J26" s="5"/>
       <c r="K26" s="12"/>
-    </row>
-    <row r="27" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
+      <c r="L26" s="12"/>
+    </row>
+    <row r="27" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
       <c r="B27" s="7" t="s">
         <v>29</v>
       </c>
@@ -1708,18 +1701,19 @@
       <c r="D27" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="7"/>
+      <c r="F27" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="5"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="12"/>
       <c r="I27" s="5"/>
-      <c r="J27" s="12"/>
+      <c r="J27" s="5"/>
       <c r="K27" s="12"/>
-    </row>
-    <row r="28" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
+      <c r="L27" s="12"/>
+    </row>
+    <row r="28" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
       <c r="B28" s="7" t="s">
         <v>29</v>
       </c>
@@ -1729,18 +1723,19 @@
       <c r="D28" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="7"/>
+      <c r="F28" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="5"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="12"/>
       <c r="I28" s="5"/>
-      <c r="J28" s="12"/>
+      <c r="J28" s="5"/>
       <c r="K28" s="12"/>
-    </row>
-    <row r="29" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
+      <c r="L28" s="12"/>
+    </row>
+    <row r="29" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
       <c r="B29" s="7" t="s">
         <v>29</v>
       </c>
@@ -1748,20 +1743,21 @@
       <c r="D29" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="7"/>
+      <c r="F29" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="10" t="s">
+      <c r="G29" s="7"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="I29" s="5"/>
-      <c r="J29" s="12"/>
+      <c r="J29" s="5"/>
       <c r="K29" s="12"/>
-    </row>
-    <row r="30" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
+      <c r="L29" s="12"/>
+    </row>
+    <row r="30" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
       <c r="B30" s="7" t="s">
         <v>29</v>
       </c>
@@ -1769,18 +1765,19 @@
       <c r="D30" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="7"/>
+      <c r="F30" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="5"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="12"/>
       <c r="I30" s="5"/>
-      <c r="J30" s="12"/>
+      <c r="J30" s="5"/>
       <c r="K30" s="12"/>
-    </row>
-    <row r="31" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
+      <c r="L30" s="12"/>
+    </row>
+    <row r="31" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
       <c r="B31" s="7" t="s">
         <v>29</v>
       </c>
@@ -1788,17 +1785,18 @@
       <c r="D31" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="7"/>
+      <c r="F31" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="5"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="12"/>
       <c r="I31" s="5"/>
-      <c r="J31" s="12"/>
+      <c r="J31" s="5"/>
       <c r="K31" s="12"/>
-    </row>
-    <row r="32" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L31" s="12"/>
+    </row>
+    <row r="32" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>43</v>
       </c>
@@ -1810,50 +1808,51 @@
         <v>14</v>
       </c>
       <c r="E32" s="7"/>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="7"/>
+      <c r="G32" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="H32" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H32" s="5"/>
-      <c r="I32" s="10" t="s">
+      <c r="I32" s="5"/>
+      <c r="J32" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="J32" s="10" t="s">
+      <c r="K32" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="6:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F33" s="7"/>
+    <row r="33" spans="7:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G33" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J32" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K32"/>
   <mergeCells count="21">
-    <mergeCell ref="J24:J31"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="K5:K9"/>
-    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="H14:H23"/>
     <mergeCell ref="K14:K23"/>
-    <mergeCell ref="K24:K31"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="J5:J9"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="G14:G23"/>
-    <mergeCell ref="J14:J23"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G5:G9"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="H5:H9"/>
     <mergeCell ref="A24:A31"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="A14:A21"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G24:G31"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H24:H31"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="K24:K31"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="L5:L9"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L14:L23"/>
+    <mergeCell ref="L24:L31"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="K5:K9"/>
+    <mergeCell ref="K11:K12"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Requirements/RTM.xlsx
+++ b/Requirements/RTM.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="116">
   <si>
     <t>SRS</t>
   </si>
@@ -520,6 +520,28 @@
 TC_PerformTransaction_12
 TC_PerformTransaction_13
 </t>
+  </si>
+  <si>
+    <t>TC_CloseAccount_01</t>
+  </si>
+  <si>
+    <t>TC_CloseAccount_02</t>
+  </si>
+  <si>
+    <t>TC_CloseAccount_03</t>
+  </si>
+  <si>
+    <t>TC_CloseAccount_04</t>
+  </si>
+  <si>
+    <t>TC_CloseAccount_05</t>
+  </si>
+  <si>
+    <t>TC_CloseAccount_06</t>
+  </si>
+  <si>
+    <t>TC_CloseAccount_07
+TC_CloseAccount_08</t>
   </si>
 </sst>
 </file>
@@ -739,37 +761,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1079,8 +1101,8 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="59.42578125" defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1134,7 +1156,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>48</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1151,22 +1173,22 @@
         <v>66</v>
       </c>
       <c r="G2" s="4"/>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="15" t="s">
         <v>55</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="15" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="4" t="s">
         <v>33</v>
       </c>
@@ -1183,16 +1205,16 @@
       <c r="G3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="13"/>
+      <c r="H3" s="16"/>
       <c r="I3" s="4" t="s">
         <v>87</v>
       </c>
       <c r="J3" s="4"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="4" t="s">
         <v>32</v>
       </c>
@@ -1205,14 +1227,14 @@
         <v>59</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="13"/>
+      <c r="H4" s="16"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="21" t="s">
         <v>49</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1229,22 +1251,22 @@
         <v>67</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="16" t="s">
         <v>54</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>90</v>
       </c>
       <c r="J5" s="4"/>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="16" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
@@ -1259,16 +1281,16 @@
       <c r="G6" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H6" s="13"/>
+      <c r="H6" s="16"/>
       <c r="I6" s="4" t="s">
         <v>87</v>
       </c>
       <c r="J6" s="4"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
@@ -1281,14 +1303,14 @@
         <v>68</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="13"/>
+      <c r="H7" s="16"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
@@ -1301,14 +1323,14 @@
         <v>69</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="13"/>
+      <c r="H8" s="16"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
@@ -1321,14 +1343,14 @@
         <v>69</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="H9" s="13"/>
+      <c r="H9" s="16"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
     </row>
     <row r="10" spans="1:13" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="20" t="s">
         <v>64</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1360,7 +1382,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="1" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="7" t="s">
         <v>30</v>
       </c>
@@ -1375,7 +1397,7 @@
         <v>88</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="16" t="s">
         <v>71</v>
       </c>
       <c r="I11" s="8" t="s">
@@ -1384,15 +1406,15 @@
       <c r="J11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="L11" s="13" t="s">
+      <c r="L11" s="16" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="7" t="s">
         <v>30</v>
       </c>
@@ -1407,16 +1429,16 @@
         <v>80</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="H12" s="13"/>
+      <c r="H12" s="16"/>
       <c r="I12" s="8" t="s">
         <v>87</v>
       </c>
       <c r="J12" s="8"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
     </row>
     <row r="13" spans="1:13" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="7" t="s">
         <v>29</v>
       </c>
@@ -1446,7 +1468,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="22" t="s">
         <v>50</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1456,30 +1478,30 @@
       <c r="D14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="14" t="s">
         <v>103</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>72</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="16" t="s">
         <v>71</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="K14" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="L14" s="13" t="s">
+      <c r="L14" s="16" t="s">
         <v>99</v>
       </c>
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="7" t="s">
         <v>58</v>
       </c>
@@ -1489,49 +1511,49 @@
       <c r="D15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="14" t="s">
         <v>102</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>73</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="13"/>
+      <c r="H15" s="16"/>
       <c r="I15" s="5"/>
       <c r="J15" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="7" t="s">
         <v>58</v>
       </c>
       <c r="C16" s="7"/>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="14" t="s">
         <v>102</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>65</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="H16" s="13"/>
+      <c r="H16" s="16"/>
       <c r="I16" s="11" t="s">
         <v>87</v>
       </c>
       <c r="J16" s="5"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
       <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="7" t="s">
         <v>58</v>
       </c>
@@ -1539,22 +1561,22 @@
       <c r="D17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="13" t="s">
         <v>105</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="H17" s="13"/>
+      <c r="H17" s="16"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="7" t="s">
         <v>58</v>
       </c>
@@ -1562,22 +1584,22 @@
       <c r="D18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="14" t="s">
         <v>104</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="H18" s="13"/>
+      <c r="H18" s="16"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="7" t="s">
         <v>58</v>
       </c>
@@ -1585,22 +1607,22 @@
       <c r="D19" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="14" t="s">
         <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G19" s="7"/>
-      <c r="H19" s="13"/>
+      <c r="H19" s="16"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
       <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="7" t="s">
         <v>58</v>
       </c>
@@ -1608,22 +1630,22 @@
       <c r="D20" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="13" t="s">
         <v>107</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G20" s="7"/>
-      <c r="H20" s="13"/>
+      <c r="H20" s="16"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
       <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="7" t="s">
         <v>58</v>
       </c>
@@ -1631,22 +1653,22 @@
       <c r="D21" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="13" t="s">
         <v>108</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G21" s="7"/>
-      <c r="H21" s="13"/>
+      <c r="H21" s="16"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="23" t="s">
         <v>51</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -1663,17 +1685,17 @@
         <v>47</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="H22" s="13"/>
+      <c r="H22" s="16"/>
       <c r="I22" s="11" t="s">
         <v>87</v>
       </c>
       <c r="J22" s="5"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="7" t="s">
         <v>31</v>
       </c>
@@ -1686,15 +1708,15 @@
         <v>47</v>
       </c>
       <c r="G23" s="7"/>
-      <c r="H23" s="13"/>
+      <c r="H23" s="16"/>
       <c r="I23" s="11"/>
       <c r="J23" s="5"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
       <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="17" t="s">
         <v>52</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -1706,27 +1728,29 @@
       <c r="D24" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="F24" s="7" t="s">
         <v>74</v>
       </c>
       <c r="G24" s="7"/>
-      <c r="H24" s="13" t="s">
+      <c r="H24" s="16" t="s">
         <v>70</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="K24" s="13" t="s">
+      <c r="K24" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="L24" s="13" t="s">
+      <c r="L24" s="16" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="7" t="s">
         <v>29</v>
       </c>
@@ -1734,19 +1758,21 @@
       <c r="D25" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="F25" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G25" s="7"/>
-      <c r="H25" s="13"/>
+      <c r="H25" s="16"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
     </row>
     <row r="26" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="7" t="s">
         <v>29</v>
       </c>
@@ -1754,19 +1780,21 @@
       <c r="D26" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="F26" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G26" s="7"/>
-      <c r="H26" s="13"/>
+      <c r="H26" s="16"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
     </row>
     <row r="27" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="7" t="s">
         <v>29</v>
       </c>
@@ -1774,19 +1802,21 @@
       <c r="D27" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>112</v>
+      </c>
       <c r="F27" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G27" s="7"/>
-      <c r="H27" s="13"/>
+      <c r="H27" s="16"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
     </row>
     <row r="28" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="7" t="s">
         <v>29</v>
       </c>
@@ -1796,19 +1826,21 @@
       <c r="D28" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="7"/>
+      <c r="E28" s="7" t="s">
+        <v>113</v>
+      </c>
       <c r="F28" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G28" s="7"/>
-      <c r="H28" s="13"/>
+      <c r="H28" s="16"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
     </row>
     <row r="29" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="7" t="s">
         <v>29</v>
       </c>
@@ -1816,21 +1848,23 @@
       <c r="D29" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="7"/>
+      <c r="E29" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="F29" s="7" t="s">
         <v>75</v>
       </c>
       <c r="G29" s="7"/>
-      <c r="H29" s="13"/>
+      <c r="H29" s="16"/>
       <c r="I29" s="10" t="s">
         <v>87</v>
       </c>
       <c r="J29" s="5"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
     </row>
     <row r="30" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="7" t="s">
         <v>29</v>
       </c>
@@ -1838,19 +1872,21 @@
       <c r="D30" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="7"/>
+      <c r="E30" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="F30" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G30" s="7"/>
-      <c r="H30" s="13"/>
+      <c r="H30" s="16"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
     </row>
     <row r="31" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
+      <c r="A31" s="17"/>
       <c r="B31" s="7" t="s">
         <v>29</v>
       </c>
@@ -1858,16 +1894,18 @@
       <c r="D31" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="7"/>
+      <c r="E31" s="7" t="s">
+        <v>115</v>
+      </c>
       <c r="F31" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G31" s="7"/>
-      <c r="H31" s="13"/>
+      <c r="H31" s="16"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
     </row>
     <row r="32" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
@@ -1905,11 +1943,6 @@
   </sheetData>
   <autoFilter ref="A1:K32"/>
   <mergeCells count="21">
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="L5:L9"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L14:L23"/>
-    <mergeCell ref="L24:L31"/>
     <mergeCell ref="H14:H23"/>
     <mergeCell ref="K14:K23"/>
     <mergeCell ref="H2:H4"/>
@@ -1926,6 +1959,11 @@
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="K5:K9"/>
     <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="L5:L9"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L14:L23"/>
+    <mergeCell ref="L24:L31"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Requirements/RTM.xlsx
+++ b/Requirements/RTM.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA9CD6B-2A50-4499-AE0C-5A5131A5F230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="120">
   <si>
     <t>SRS</t>
   </si>
@@ -543,12 +544,26 @@
     <t>TC_CloseAccount_07
 TC_CloseAccount_08</t>
   </si>
+  <si>
+    <t>TC_Login_001_client
+ &amp;TC_Login_002_admin</t>
+  </si>
+  <si>
+    <t>TC_Login_003</t>
+  </si>
+  <si>
+    <t>TC_Login_005</t>
+  </si>
+  <si>
+    <t>TC_Login_009,TC_Login_004,
+TC_Login_006,TC_Login_007</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -635,6 +650,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -723,7 +745,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -767,12 +789,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -793,6 +815,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -887,6 +912,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -922,6 +964,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1097,12 +1156,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="59.42578125" defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1173,17 +1232,17 @@
         <v>66</v>
       </c>
       <c r="G2" s="4"/>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="16" t="s">
         <v>55</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="16" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1205,13 +1264,13 @@
       <c r="G3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="16"/>
+      <c r="H3" s="15"/>
       <c r="I3" s="4" t="s">
         <v>87</v>
       </c>
       <c r="J3" s="4"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
@@ -1227,11 +1286,11 @@
         <v>59</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="16"/>
+      <c r="H4" s="15"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
@@ -1246,22 +1305,24 @@
       <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="24" t="s">
+        <v>116</v>
+      </c>
       <c r="F5" s="7" t="s">
         <v>67</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="15" t="s">
         <v>54</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>90</v>
       </c>
       <c r="J5" s="4"/>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="15" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1274,20 +1335,22 @@
       <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" s="7" t="s">
+        <v>116</v>
+      </c>
       <c r="F6" s="7" t="s">
         <v>78</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H6" s="16"/>
+      <c r="H6" s="15"/>
       <c r="I6" s="4" t="s">
         <v>87</v>
       </c>
       <c r="J6" s="4"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
@@ -1298,16 +1361,18 @@
       <c r="D7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="E7" s="7" t="s">
+        <v>119</v>
+      </c>
       <c r="F7" s="7" t="s">
         <v>68</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="16"/>
+      <c r="H7" s="15"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
@@ -1318,16 +1383,18 @@
       <c r="D8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>117</v>
+      </c>
       <c r="F8" s="7" t="s">
         <v>69</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="16"/>
+      <c r="H8" s="15"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
@@ -1338,16 +1405,18 @@
       <c r="D9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>118</v>
+      </c>
       <c r="F9" s="7" t="s">
         <v>69</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="H9" s="16"/>
+      <c r="H9" s="15"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
     </row>
     <row r="10" spans="1:13" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
@@ -1397,7 +1466,7 @@
         <v>88</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="15" t="s">
         <v>71</v>
       </c>
       <c r="I11" s="8" t="s">
@@ -1406,10 +1475,10 @@
       <c r="J11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="L11" s="16" t="s">
+      <c r="L11" s="15" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1429,13 +1498,13 @@
         <v>80</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="H12" s="16"/>
+      <c r="H12" s="15"/>
       <c r="I12" s="8" t="s">
         <v>87</v>
       </c>
       <c r="J12" s="8"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
     </row>
     <row r="13" spans="1:13" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
@@ -1485,17 +1554,17 @@
         <v>72</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="15" t="s">
         <v>71</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K14" s="16" t="s">
+      <c r="K14" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="L14" s="16" t="s">
+      <c r="L14" s="15" t="s">
         <v>99</v>
       </c>
       <c r="M14" s="12"/>
@@ -1518,13 +1587,13 @@
         <v>73</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="16"/>
+      <c r="H15" s="15"/>
       <c r="I15" s="5"/>
       <c r="J15" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1543,13 +1612,13 @@
         <v>65</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="H16" s="16"/>
+      <c r="H16" s="15"/>
       <c r="I16" s="11" t="s">
         <v>87</v>
       </c>
       <c r="J16" s="5"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
       <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1568,11 +1637,11 @@
         <v>45</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="H17" s="16"/>
+      <c r="H17" s="15"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1591,11 +1660,11 @@
         <v>45</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="H18" s="16"/>
+      <c r="H18" s="15"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1614,11 +1683,11 @@
         <v>45</v>
       </c>
       <c r="G19" s="7"/>
-      <c r="H19" s="16"/>
+      <c r="H19" s="15"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
       <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1637,11 +1706,11 @@
         <v>45</v>
       </c>
       <c r="G20" s="7"/>
-      <c r="H20" s="16"/>
+      <c r="H20" s="15"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
       <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1660,11 +1729,11 @@
         <v>45</v>
       </c>
       <c r="G21" s="7"/>
-      <c r="H21" s="16"/>
+      <c r="H21" s="15"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1685,13 +1754,13 @@
         <v>47</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="H22" s="16"/>
+      <c r="H22" s="15"/>
       <c r="I22" s="11" t="s">
         <v>87</v>
       </c>
       <c r="J22" s="5"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1708,11 +1777,11 @@
         <v>47</v>
       </c>
       <c r="G23" s="7"/>
-      <c r="H23" s="16"/>
+      <c r="H23" s="15"/>
       <c r="I23" s="11"/>
       <c r="J23" s="5"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
       <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1735,17 +1804,17 @@
         <v>74</v>
       </c>
       <c r="G24" s="7"/>
-      <c r="H24" s="16" t="s">
+      <c r="H24" s="15" t="s">
         <v>70</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="K24" s="16" t="s">
+      <c r="K24" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="L24" s="16" t="s">
+      <c r="L24" s="15" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1765,11 +1834,11 @@
         <v>46</v>
       </c>
       <c r="G25" s="7"/>
-      <c r="H25" s="16"/>
+      <c r="H25" s="15"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
     </row>
     <row r="26" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
@@ -1787,11 +1856,11 @@
         <v>46</v>
       </c>
       <c r="G26" s="7"/>
-      <c r="H26" s="16"/>
+      <c r="H26" s="15"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
     </row>
     <row r="27" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
@@ -1809,11 +1878,11 @@
         <v>46</v>
       </c>
       <c r="G27" s="7"/>
-      <c r="H27" s="16"/>
+      <c r="H27" s="15"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
     </row>
     <row r="28" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
@@ -1833,11 +1902,11 @@
         <v>46</v>
       </c>
       <c r="G28" s="7"/>
-      <c r="H28" s="16"/>
+      <c r="H28" s="15"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
     </row>
     <row r="29" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
@@ -1855,13 +1924,13 @@
         <v>75</v>
       </c>
       <c r="G29" s="7"/>
-      <c r="H29" s="16"/>
+      <c r="H29" s="15"/>
       <c r="I29" s="10" t="s">
         <v>87</v>
       </c>
       <c r="J29" s="5"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
     </row>
     <row r="30" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
@@ -1879,11 +1948,11 @@
         <v>46</v>
       </c>
       <c r="G30" s="7"/>
-      <c r="H30" s="16"/>
+      <c r="H30" s="15"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
     </row>
     <row r="31" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
@@ -1901,11 +1970,11 @@
         <v>46</v>
       </c>
       <c r="G31" s="7"/>
-      <c r="H31" s="16"/>
+      <c r="H31" s="15"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
     </row>
     <row r="32" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
@@ -1941,8 +2010,13 @@
       <c r="G33" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K32"/>
+  <autoFilter ref="A1:K32" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="21">
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="L5:L9"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L14:L23"/>
+    <mergeCell ref="L24:L31"/>
     <mergeCell ref="H14:H23"/>
     <mergeCell ref="K14:K23"/>
     <mergeCell ref="H2:H4"/>
@@ -1959,11 +2033,6 @@
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="K5:K9"/>
     <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="L5:L9"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L14:L23"/>
-    <mergeCell ref="L24:L31"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Requirements/RTM.xlsx
+++ b/Requirements/RTM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA9CD6B-2A50-4499-AE0C-5A5131A5F230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E112E7-0ACF-4CFD-BF44-45F2DD550B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="121">
   <si>
     <t>SRS</t>
   </si>
@@ -558,12 +558,18 @@
     <t>TC_Login_009,TC_Login_004,
 TC_Login_006,TC_Login_007</t>
   </si>
+  <si>
+    <t xml:space="preserve">TC_Logout _001_client
+TC_Logout _001_Admin
+TC_Logout _002  
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -658,8 +664,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -708,6 +721,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -745,7 +764,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -789,12 +808,15 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -816,7 +838,7 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1160,8 +1182,8 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="59.42578125" defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1215,7 +1237,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>48</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1247,7 +1269,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="4" t="s">
         <v>33</v>
       </c>
@@ -1264,16 +1286,16 @@
       <c r="G3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="15"/>
+      <c r="H3" s="17"/>
       <c r="I3" s="4" t="s">
         <v>87</v>
       </c>
       <c r="J3" s="4"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>32</v>
       </c>
@@ -1286,14 +1308,14 @@
         <v>59</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="15"/>
+      <c r="H4" s="17"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="22" t="s">
         <v>49</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1305,29 +1327,29 @@
       <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="15" t="s">
         <v>116</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>67</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="17" t="s">
         <v>54</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>90</v>
       </c>
       <c r="J5" s="4"/>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="17" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
@@ -1344,16 +1366,16 @@
       <c r="G6" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H6" s="15"/>
+      <c r="H6" s="17"/>
       <c r="I6" s="4" t="s">
         <v>87</v>
       </c>
       <c r="J6" s="4"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
@@ -1368,14 +1390,14 @@
         <v>68</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="15"/>
+      <c r="H7" s="17"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
@@ -1390,14 +1412,14 @@
         <v>69</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="15"/>
+      <c r="H8" s="17"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
@@ -1412,14 +1434,14 @@
         <v>69</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="H9" s="15"/>
+      <c r="H9" s="17"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:13" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="21" t="s">
         <v>64</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1451,7 +1473,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="1" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="7" t="s">
         <v>30</v>
       </c>
@@ -1466,7 +1488,7 @@
         <v>88</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="17" t="s">
         <v>71</v>
       </c>
       <c r="I11" s="8" t="s">
@@ -1475,15 +1497,15 @@
       <c r="J11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="L11" s="17" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="7" t="s">
         <v>30</v>
       </c>
@@ -1498,16 +1520,16 @@
         <v>80</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="H12" s="15"/>
+      <c r="H12" s="17"/>
       <c r="I12" s="8" t="s">
         <v>87</v>
       </c>
       <c r="J12" s="8"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:13" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="7" t="s">
         <v>29</v>
       </c>
@@ -1537,7 +1559,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="23" t="s">
         <v>50</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1554,23 +1576,23 @@
         <v>72</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="17" t="s">
         <v>71</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="K14" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="L14" s="15" t="s">
+      <c r="L14" s="17" t="s">
         <v>99</v>
       </c>
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="7" t="s">
         <v>58</v>
       </c>
@@ -1587,17 +1609,17 @@
         <v>73</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="15"/>
+      <c r="H15" s="17"/>
       <c r="I15" s="5"/>
       <c r="J15" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="7" t="s">
         <v>58</v>
       </c>
@@ -1612,17 +1634,17 @@
         <v>65</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="H16" s="15"/>
+      <c r="H16" s="17"/>
       <c r="I16" s="11" t="s">
         <v>87</v>
       </c>
       <c r="J16" s="5"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
       <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="7" t="s">
         <v>58</v>
       </c>
@@ -1637,15 +1659,15 @@
         <v>45</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="H17" s="15"/>
+      <c r="H17" s="17"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="7" t="s">
         <v>58</v>
       </c>
@@ -1660,15 +1682,15 @@
         <v>45</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="H18" s="15"/>
+      <c r="H18" s="17"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="7" t="s">
         <v>58</v>
       </c>
@@ -1683,15 +1705,15 @@
         <v>45</v>
       </c>
       <c r="G19" s="7"/>
-      <c r="H19" s="15"/>
+      <c r="H19" s="17"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
       <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="7" t="s">
         <v>58</v>
       </c>
@@ -1706,15 +1728,15 @@
         <v>45</v>
       </c>
       <c r="G20" s="7"/>
-      <c r="H20" s="15"/>
+      <c r="H20" s="17"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
       <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="7" t="s">
         <v>58</v>
       </c>
@@ -1729,15 +1751,15 @@
         <v>45</v>
       </c>
       <c r="G21" s="7"/>
-      <c r="H21" s="15"/>
+      <c r="H21" s="17"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="24" t="s">
         <v>51</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -1754,17 +1776,17 @@
         <v>47</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="H22" s="15"/>
+      <c r="H22" s="17"/>
       <c r="I22" s="11" t="s">
         <v>87</v>
       </c>
       <c r="J22" s="5"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="7" t="s">
         <v>31</v>
       </c>
@@ -1777,15 +1799,15 @@
         <v>47</v>
       </c>
       <c r="G23" s="7"/>
-      <c r="H23" s="15"/>
+      <c r="H23" s="17"/>
       <c r="I23" s="11"/>
       <c r="J23" s="5"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
       <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="18" t="s">
         <v>52</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -1804,22 +1826,22 @@
         <v>74</v>
       </c>
       <c r="G24" s="7"/>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="17" t="s">
         <v>70</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="K24" s="15" t="s">
+      <c r="K24" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="L24" s="15" t="s">
+      <c r="L24" s="17" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="7" t="s">
         <v>29</v>
       </c>
@@ -1834,14 +1856,14 @@
         <v>46</v>
       </c>
       <c r="G25" s="7"/>
-      <c r="H25" s="15"/>
+      <c r="H25" s="17"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
     </row>
     <row r="26" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="7" t="s">
         <v>29</v>
       </c>
@@ -1856,14 +1878,14 @@
         <v>46</v>
       </c>
       <c r="G26" s="7"/>
-      <c r="H26" s="15"/>
+      <c r="H26" s="17"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
     </row>
     <row r="27" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="7" t="s">
         <v>29</v>
       </c>
@@ -1878,14 +1900,14 @@
         <v>46</v>
       </c>
       <c r="G27" s="7"/>
-      <c r="H27" s="15"/>
+      <c r="H27" s="17"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
     </row>
     <row r="28" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="7" t="s">
         <v>29</v>
       </c>
@@ -1902,14 +1924,14 @@
         <v>46</v>
       </c>
       <c r="G28" s="7"/>
-      <c r="H28" s="15"/>
+      <c r="H28" s="17"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
     </row>
     <row r="29" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="7" t="s">
         <v>29</v>
       </c>
@@ -1924,16 +1946,16 @@
         <v>75</v>
       </c>
       <c r="G29" s="7"/>
-      <c r="H29" s="15"/>
+      <c r="H29" s="17"/>
       <c r="I29" s="10" t="s">
         <v>87</v>
       </c>
       <c r="J29" s="5"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
     </row>
     <row r="30" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="7" t="s">
         <v>29</v>
       </c>
@@ -1948,14 +1970,14 @@
         <v>46</v>
       </c>
       <c r="G30" s="7"/>
-      <c r="H30" s="15"/>
+      <c r="H30" s="17"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
     </row>
     <row r="31" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="7" t="s">
         <v>29</v>
       </c>
@@ -1970,13 +1992,13 @@
         <v>46</v>
       </c>
       <c r="G31" s="7"/>
-      <c r="H31" s="15"/>
+      <c r="H31" s="17"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-    </row>
-    <row r="32" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+    </row>
+    <row r="32" spans="1:13" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>43</v>
       </c>
@@ -1987,7 +2009,9 @@
       <c r="D32" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="7"/>
+      <c r="E32" s="25" t="s">
+        <v>120</v>
+      </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7" t="s">
         <v>79</v>
@@ -2012,11 +2036,6 @@
   </sheetData>
   <autoFilter ref="A1:K32" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="21">
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="L5:L9"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L14:L23"/>
-    <mergeCell ref="L24:L31"/>
     <mergeCell ref="H14:H23"/>
     <mergeCell ref="K14:K23"/>
     <mergeCell ref="H2:H4"/>
@@ -2033,6 +2052,11 @@
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="K5:K9"/>
     <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="L5:L9"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L14:L23"/>
+    <mergeCell ref="L24:L31"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Requirements/RTM.xlsx
+++ b/Requirements/RTM.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E112E7-0ACF-4CFD-BF44-45F2DD550B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="123">
   <si>
     <t>SRS</t>
   </si>
@@ -564,11 +563,17 @@
 TC_Logout _002  
 </t>
   </si>
+  <si>
+    <t>TC_Add New Account _001</t>
+  </si>
+  <si>
+    <t>TC_Add New Account _002</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -811,12 +816,15 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -837,9 +845,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -934,23 +939,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -986,23 +974,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1178,12 +1149,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="59.42578125" defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1237,7 +1208,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>48</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1254,22 +1225,22 @@
         <v>66</v>
       </c>
       <c r="G2" s="4"/>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="18" t="s">
         <v>55</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="18" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="4" t="s">
         <v>33</v>
       </c>
@@ -1295,7 +1266,7 @@
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="4" t="s">
         <v>32</v>
       </c>
@@ -1315,7 +1286,7 @@
       <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="23" t="s">
         <v>49</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1349,7 +1320,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
@@ -1375,7 +1346,7 @@
       <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
@@ -1397,7 +1368,7 @@
       <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
@@ -1419,7 +1390,7 @@
       <c r="L8" s="17"/>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
@@ -1441,7 +1412,7 @@
       <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:13" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="22" t="s">
         <v>64</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1473,7 +1444,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="1" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="7" t="s">
         <v>30</v>
       </c>
@@ -1505,7 +1476,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="7" t="s">
         <v>30</v>
       </c>
@@ -1529,7 +1500,7 @@
       <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:13" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="7" t="s">
         <v>29</v>
       </c>
@@ -1559,7 +1530,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="24" t="s">
         <v>50</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1592,7 +1563,7 @@
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="7" t="s">
         <v>58</v>
       </c>
@@ -1619,7 +1590,7 @@
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="7" t="s">
         <v>58</v>
       </c>
@@ -1644,7 +1615,7 @@
       <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="7" t="s">
         <v>58</v>
       </c>
@@ -1667,7 +1638,7 @@
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="7" t="s">
         <v>58</v>
       </c>
@@ -1690,7 +1661,7 @@
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="7" t="s">
         <v>58</v>
       </c>
@@ -1713,7 +1684,7 @@
       <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="7" t="s">
         <v>58</v>
       </c>
@@ -1736,7 +1707,7 @@
       <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="7" t="s">
         <v>58</v>
       </c>
@@ -1759,7 +1730,7 @@
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="25" t="s">
         <v>51</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -1771,7 +1742,9 @@
       <c r="D22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="7"/>
+      <c r="E22" s="13" t="s">
+        <v>121</v>
+      </c>
       <c r="F22" s="7" t="s">
         <v>47</v>
       </c>
@@ -1786,7 +1759,7 @@
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="7" t="s">
         <v>31</v>
       </c>
@@ -1794,7 +1767,9 @@
       <c r="D23" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E23" s="7"/>
+      <c r="E23" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="F23" s="7" t="s">
         <v>47</v>
       </c>
@@ -1807,7 +1782,7 @@
       <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="19" t="s">
         <v>52</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -1841,7 +1816,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="7" t="s">
         <v>29</v>
       </c>
@@ -1863,7 +1838,7 @@
       <c r="L25" s="17"/>
     </row>
     <row r="26" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="7" t="s">
         <v>29</v>
       </c>
@@ -1885,7 +1860,7 @@
       <c r="L26" s="17"/>
     </row>
     <row r="27" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="7" t="s">
         <v>29</v>
       </c>
@@ -1907,7 +1882,7 @@
       <c r="L27" s="17"/>
     </row>
     <row r="28" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="7" t="s">
         <v>29</v>
       </c>
@@ -1931,7 +1906,7 @@
       <c r="L28" s="17"/>
     </row>
     <row r="29" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="7" t="s">
         <v>29</v>
       </c>
@@ -1955,7 +1930,7 @@
       <c r="L29" s="17"/>
     </row>
     <row r="30" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="7" t="s">
         <v>29</v>
       </c>
@@ -1977,7 +1952,7 @@
       <c r="L30" s="17"/>
     </row>
     <row r="31" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="7" t="s">
         <v>29</v>
       </c>
@@ -2009,7 +1984,7 @@
       <c r="D32" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="25" t="s">
+      <c r="E32" s="16" t="s">
         <v>120</v>
       </c>
       <c r="F32" s="7"/>
@@ -2034,8 +2009,13 @@
       <c r="G33" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K32" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K32"/>
   <mergeCells count="21">
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="L5:L9"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L14:L23"/>
+    <mergeCell ref="L24:L31"/>
     <mergeCell ref="H14:H23"/>
     <mergeCell ref="K14:K23"/>
     <mergeCell ref="H2:H4"/>
@@ -2052,11 +2032,6 @@
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="K5:K9"/>
     <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="L5:L9"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L14:L23"/>
-    <mergeCell ref="L24:L31"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Requirements/RTM.xlsx
+++ b/Requirements/RTM.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE62BB81-55AC-4619-98C2-58374021CC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="129">
   <si>
     <t>SRS</t>
   </si>
@@ -558,23 +559,69 @@
 TC_Login_006,TC_Login_007</t>
   </si>
   <si>
+    <t>TC_Add New Account _001</t>
+  </si>
+  <si>
+    <t>TC_Add New Account _002</t>
+  </si>
+  <si>
+    <t>TC_Register_001</t>
+  </si>
+  <si>
+    <t>TC_Register_002
+TC_Register_003
+TC_Register_004
+TC_Register_005
+TC_Register_006
+TC_Register_007
+TC_Register_008
+TC_Register_009
+TC_Register_010
+TC_Register_011
+TC_Register_012
+TC_Register_013
+TC_Register_014
+TC_Register_015
+TC_Register_016
+TC_Register_017
+TC_Register_018
+TC_Register_019
+TC_Register_020
+TC_Register_021
+TC_Register_022
+TC_Register_023
+TC_Register_024</t>
+  </si>
+  <si>
+    <t>TC_ViwAccount_001
+TC_ViwAccount_003
+TC_ViwAccount_004
+TC_ViwAccount_005
+TC_ViwAccount_006</t>
+  </si>
+  <si>
+    <t>TC_ViwAccount_009
+TC_ViwAccount_011
+TC_ViwAccount_012
+TC_ViwAccount_013</t>
+  </si>
+  <si>
+    <t>TC_ViwAccount_010</t>
+  </si>
+  <si>
+    <t>TC_ViwAccount_002</t>
+  </si>
+  <si>
     <t xml:space="preserve">TC_Logout _001_client
 TC_Logout _001_Admin
-TC_Logout _002  
 </t>
-  </si>
-  <si>
-    <t>TC_Add New Account _001</t>
-  </si>
-  <si>
-    <t>TC_Add New Account _002</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -668,13 +715,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="10">
@@ -816,15 +856,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -845,6 +882,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -939,6 +979,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -974,6 +1031,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1149,12 +1223,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="59.42578125" defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1208,7 +1282,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>48</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1220,27 +1294,29 @@
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="11"/>
+      <c r="E2" s="11" t="s">
+        <v>122</v>
+      </c>
       <c r="F2" s="7" t="s">
         <v>66</v>
       </c>
       <c r="G2" s="4"/>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="16" t="s">
         <v>55</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="16" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="4" t="s">
         <v>33</v>
       </c>
@@ -1250,7 +1326,9 @@
       <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="11" t="s">
+        <v>122</v>
+      </c>
       <c r="F3" s="7" t="s">
         <v>59</v>
       </c>
@@ -1265,8 +1343,8 @@
       <c r="K3" s="17"/>
       <c r="L3" s="17"/>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>32</v>
       </c>
@@ -1274,7 +1352,9 @@
       <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="7" t="s">
+        <v>123</v>
+      </c>
       <c r="F4" s="7" t="s">
         <v>59</v>
       </c>
@@ -1286,7 +1366,7 @@
       <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="22" t="s">
         <v>49</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1320,7 +1400,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
@@ -1346,7 +1426,7 @@
       <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
@@ -1368,7 +1448,7 @@
       <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
@@ -1390,7 +1470,7 @@
       <c r="L8" s="17"/>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
@@ -1411,8 +1491,8 @@
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
         <v>64</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1424,7 +1504,9 @@
       <c r="D10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>124</v>
+      </c>
       <c r="F10" s="7" t="s">
         <v>44</v>
       </c>
@@ -1444,7 +1526,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="1" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="7" t="s">
         <v>30</v>
       </c>
@@ -1454,7 +1536,9 @@
       <c r="D11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>125</v>
+      </c>
       <c r="F11" s="7" t="s">
         <v>88</v>
       </c>
@@ -1476,7 +1560,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="7" t="s">
         <v>30</v>
       </c>
@@ -1486,7 +1570,9 @@
       <c r="D12" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>126</v>
+      </c>
       <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
@@ -1500,7 +1586,7 @@
       <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:13" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="7" t="s">
         <v>29</v>
       </c>
@@ -1510,7 +1596,9 @@
       <c r="D13" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="F13" s="7" t="s">
         <v>44</v>
       </c>
@@ -1530,7 +1618,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="23" t="s">
         <v>50</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1563,7 +1651,7 @@
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="7" t="s">
         <v>58</v>
       </c>
@@ -1590,7 +1678,7 @@
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="7" t="s">
         <v>58</v>
       </c>
@@ -1615,7 +1703,7 @@
       <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="7" t="s">
         <v>58</v>
       </c>
@@ -1638,7 +1726,7 @@
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="7" t="s">
         <v>58</v>
       </c>
@@ -1661,7 +1749,7 @@
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="7" t="s">
         <v>58</v>
       </c>
@@ -1684,7 +1772,7 @@
       <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="7" t="s">
         <v>58</v>
       </c>
@@ -1707,7 +1795,7 @@
       <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="7" t="s">
         <v>58</v>
       </c>
@@ -1730,7 +1818,7 @@
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="24" t="s">
         <v>51</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -1743,7 +1831,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>47</v>
@@ -1759,7 +1847,7 @@
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="7" t="s">
         <v>31</v>
       </c>
@@ -1768,7 +1856,7 @@
         <v>81</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>47</v>
@@ -1782,7 +1870,7 @@
       <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="18" t="s">
         <v>52</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -1816,7 +1904,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="7" t="s">
         <v>29</v>
       </c>
@@ -1838,7 +1926,7 @@
       <c r="L25" s="17"/>
     </row>
     <row r="26" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="7" t="s">
         <v>29</v>
       </c>
@@ -1860,7 +1948,7 @@
       <c r="L26" s="17"/>
     </row>
     <row r="27" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="7" t="s">
         <v>29</v>
       </c>
@@ -1882,7 +1970,7 @@
       <c r="L27" s="17"/>
     </row>
     <row r="28" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="7" t="s">
         <v>29</v>
       </c>
@@ -1906,7 +1994,7 @@
       <c r="L28" s="17"/>
     </row>
     <row r="29" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="7" t="s">
         <v>29</v>
       </c>
@@ -1930,7 +2018,7 @@
       <c r="L29" s="17"/>
     </row>
     <row r="30" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="7" t="s">
         <v>29</v>
       </c>
@@ -1952,7 +2040,7 @@
       <c r="L30" s="17"/>
     </row>
     <row r="31" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="7" t="s">
         <v>29</v>
       </c>
@@ -1984,8 +2072,8 @@
       <c r="D32" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="16" t="s">
-        <v>120</v>
+      <c r="E32" s="25" t="s">
+        <v>128</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7" t="s">
@@ -2009,13 +2097,8 @@
       <c r="G33" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K32"/>
+  <autoFilter ref="A1:K32" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="21">
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="L5:L9"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L14:L23"/>
-    <mergeCell ref="L24:L31"/>
     <mergeCell ref="H14:H23"/>
     <mergeCell ref="K14:K23"/>
     <mergeCell ref="H2:H4"/>
@@ -2032,6 +2115,11 @@
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="K5:K9"/>
     <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="L5:L9"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L14:L23"/>
+    <mergeCell ref="L24:L31"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Requirements/RTM.xlsx
+++ b/Requirements/RTM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE62BB81-55AC-4619-98C2-58374021CC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4EE17E-E9A5-4BE1-9F18-075041C337A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,14 +11,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$35</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="132">
   <si>
     <t>SRS</t>
   </si>
@@ -615,6 +615,15 @@
     <t xml:space="preserve">TC_Logout _001_client
 TC_Logout _001_Admin
 </t>
+  </si>
+  <si>
+    <t>SRS_PerformTransaction_009</t>
+  </si>
+  <si>
+    <t>SRS_PerformTransaction_010</t>
+  </si>
+  <si>
+    <t>SRS_PerformTransaction_011</t>
   </si>
 </sst>
 </file>
@@ -809,7 +818,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -856,12 +865,18 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -882,9 +897,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1224,11 +1236,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="59.42578125" defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1282,7 +1294,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>48</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1301,22 +1313,22 @@
         <v>66</v>
       </c>
       <c r="G2" s="4"/>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="19" t="s">
         <v>55</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="19" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="4" t="s">
         <v>33</v>
       </c>
@@ -1335,16 +1347,16 @@
       <c r="G3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="17"/>
+      <c r="H3" s="18"/>
       <c r="I3" s="4" t="s">
         <v>87</v>
       </c>
       <c r="J3" s="4"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="4" t="s">
         <v>32</v>
       </c>
@@ -1359,14 +1371,14 @@
         <v>59</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="17"/>
+      <c r="H4" s="18"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="24" t="s">
         <v>49</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1385,22 +1397,22 @@
         <v>67</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="18" t="s">
         <v>54</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>90</v>
       </c>
       <c r="J5" s="4"/>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="L5" s="18" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
@@ -1417,16 +1429,16 @@
       <c r="G6" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H6" s="17"/>
+      <c r="H6" s="18"/>
       <c r="I6" s="4" t="s">
         <v>87</v>
       </c>
       <c r="J6" s="4"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
@@ -1441,14 +1453,14 @@
         <v>68</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="17"/>
+      <c r="H7" s="18"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
@@ -1463,14 +1475,14 @@
         <v>69</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="17"/>
+      <c r="H8" s="18"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
@@ -1485,14 +1497,14 @@
         <v>69</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="H9" s="17"/>
+      <c r="H9" s="18"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:13" s="1" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="23" t="s">
         <v>64</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1526,7 +1538,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="1" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="7" t="s">
         <v>30</v>
       </c>
@@ -1543,7 +1555,7 @@
         <v>88</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="18" t="s">
         <v>71</v>
       </c>
       <c r="I11" s="8" t="s">
@@ -1552,15 +1564,15 @@
       <c r="J11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="K11" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="L11" s="17" t="s">
+      <c r="L11" s="18" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="7" t="s">
         <v>30</v>
       </c>
@@ -1577,16 +1589,16 @@
         <v>80</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="H12" s="17"/>
+      <c r="H12" s="18"/>
       <c r="I12" s="8" t="s">
         <v>87</v>
       </c>
       <c r="J12" s="8"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
     </row>
     <row r="13" spans="1:13" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="7" t="s">
         <v>29</v>
       </c>
@@ -1618,7 +1630,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="25" t="s">
         <v>50</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1635,23 +1647,23 @@
         <v>72</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="18" t="s">
         <v>71</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K14" s="17" t="s">
+      <c r="K14" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="L14" s="17" t="s">
+      <c r="L14" s="18" t="s">
         <v>99</v>
       </c>
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="7" t="s">
         <v>58</v>
       </c>
@@ -1668,17 +1680,17 @@
         <v>73</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="17"/>
+      <c r="H15" s="18"/>
       <c r="I15" s="5"/>
       <c r="J15" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="7" t="s">
         <v>58</v>
       </c>
@@ -1693,17 +1705,17 @@
         <v>65</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="H16" s="17"/>
+      <c r="H16" s="18"/>
       <c r="I16" s="11" t="s">
         <v>87</v>
       </c>
       <c r="J16" s="5"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
       <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="7" t="s">
         <v>58</v>
       </c>
@@ -1718,15 +1730,15 @@
         <v>45</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="H17" s="17"/>
+      <c r="H17" s="18"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="7" t="s">
         <v>58</v>
       </c>
@@ -1741,15 +1753,15 @@
         <v>45</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="H18" s="17"/>
+      <c r="H18" s="18"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="7" t="s">
         <v>58</v>
       </c>
@@ -1764,15 +1776,15 @@
         <v>45</v>
       </c>
       <c r="G19" s="7"/>
-      <c r="H19" s="17"/>
+      <c r="H19" s="18"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
       <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="7" t="s">
         <v>58</v>
       </c>
@@ -1787,15 +1799,15 @@
         <v>45</v>
       </c>
       <c r="G20" s="7"/>
-      <c r="H20" s="17"/>
+      <c r="H20" s="18"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
+    <row r="21" spans="1:13" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
       <c r="B21" s="7" t="s">
         <v>58</v>
       </c>
@@ -1810,316 +1822,379 @@
         <v>45</v>
       </c>
       <c r="G21" s="7"/>
-      <c r="H21" s="17"/>
+      <c r="H21" s="18"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
-        <v>51</v>
-      </c>
+    <row r="22" spans="1:13" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
       <c r="B22" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>9</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C22" s="7"/>
       <c r="D22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>120</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="E22" s="13"/>
       <c r="F22" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="11" t="s">
-        <v>87</v>
-      </c>
+      <c r="H22" s="18"/>
+      <c r="I22" s="5"/>
       <c r="J22" s="5"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
+    <row r="23" spans="1:13" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
       <c r="B23" s="7" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>121</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="E23" s="13"/>
       <c r="F23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="12"/>
+    </row>
+    <row r="24" spans="1:13" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="12"/>
+    </row>
+    <row r="25" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="12"/>
-    </row>
-    <row r="24" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="I24" s="5"/>
-      <c r="J24" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="K24" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="L24" s="17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="G25" s="7"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="5"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="11" t="s">
+        <v>87</v>
+      </c>
       <c r="J25" s="5"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
+      <c r="A26" s="26"/>
       <c r="B26" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G26" s="7"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="5"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="11"/>
       <c r="J26" s="5"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
+      <c r="A27" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="B27" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="7"/>
+      <c r="C27" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="D27" s="7" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="G27" s="7"/>
-      <c r="H27" s="17"/>
+      <c r="H27" s="18" t="s">
+        <v>70</v>
+      </c>
       <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
+      <c r="J27" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="K27" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="L27" s="18" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="28" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
+      <c r="A28" s="20"/>
       <c r="B28" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>25</v>
-      </c>
+      <c r="C28" s="7"/>
       <c r="D28" s="7" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G28" s="7"/>
-      <c r="H28" s="17"/>
+      <c r="H28" s="18"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
     </row>
     <row r="29" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="G29" s="7"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="10" t="s">
-        <v>87</v>
-      </c>
+      <c r="H29" s="18"/>
+      <c r="I29" s="5"/>
       <c r="J29" s="5"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
     </row>
     <row r="30" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
+      <c r="A30" s="20"/>
       <c r="B30" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G30" s="7"/>
-      <c r="H30" s="17"/>
+      <c r="H30" s="18"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
     </row>
     <row r="31" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="7"/>
+      <c r="C31" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="D31" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G31" s="7"/>
-      <c r="H31" s="17"/>
+      <c r="H31" s="18"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-    </row>
-    <row r="32" spans="1:13" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+    </row>
+    <row r="32" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="20"/>
       <c r="B32" s="7" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J32" s="5"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+    </row>
+    <row r="33" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="20"/>
+      <c r="B33" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+    </row>
+    <row r="34" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="20"/>
+      <c r="B34" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+    </row>
+    <row r="35" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="25" t="s">
+      <c r="E35" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7" t="s">
+      <c r="F35" s="7"/>
+      <c r="G35" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H35" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="I32" s="5"/>
-      <c r="J32" s="10" t="s">
+      <c r="I35" s="5"/>
+      <c r="J35" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="K32" s="10" t="s">
+      <c r="K35" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="7:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G33" s="7"/>
+    <row r="36" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G36" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K32" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K35" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="21">
-    <mergeCell ref="H14:H23"/>
-    <mergeCell ref="K14:K23"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="L5:L9"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L14:L26"/>
+    <mergeCell ref="L27:L34"/>
+    <mergeCell ref="H14:H26"/>
+    <mergeCell ref="K14:K26"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="H5:H9"/>
-    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="A27:A34"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="A14:A21"/>
     <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H24:H31"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="K24:K31"/>
+    <mergeCell ref="H27:H34"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="K27:K34"/>
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="K5:K9"/>
     <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="L5:L9"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L14:L23"/>
-    <mergeCell ref="L24:L31"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Requirements/RTM.xlsx
+++ b/Requirements/RTM.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4EE17E-E9A5-4BE1-9F18-075041C337A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="135">
   <si>
     <t>SRS</t>
   </si>
@@ -504,11 +503,6 @@
     <t>TC_PerformTransaction_03</t>
   </si>
   <si>
-    <t>TC_PerformTransaction_02
-TC_PerformTransaction_05
-TC_PerformTransaction_06</t>
-  </si>
-  <si>
     <t>TC_PerformTransaction_07</t>
   </si>
   <si>
@@ -625,11 +619,24 @@
   <si>
     <t>SRS_PerformTransaction_011</t>
   </si>
+  <si>
+    <t>TC_PerformTransaction_02
+TC_PerformTransaction_06</t>
+  </si>
+  <si>
+    <t>TC_PerformTransaction_05</t>
+  </si>
+  <si>
+    <t>TC_PerformTransaction_14</t>
+  </si>
+  <si>
+    <t>TC_PerformTransaction_15</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -871,10 +878,10 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -991,23 +998,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1043,23 +1033,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1235,12 +1208,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="59.42578125" defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1307,23 +1280,23 @@
         <v>3</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>66</v>
       </c>
       <c r="G2" s="4"/>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="18" t="s">
         <v>55</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="18" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1339,7 +1312,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>59</v>
@@ -1347,13 +1320,13 @@
       <c r="G3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="18"/>
+      <c r="H3" s="19"/>
       <c r="I3" s="4" t="s">
         <v>87</v>
       </c>
       <c r="J3" s="4"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22"/>
@@ -1365,17 +1338,17 @@
         <v>6</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>59</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="18"/>
+      <c r="H4" s="19"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
@@ -1391,23 +1364,23 @@
         <v>7</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>67</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="19" t="s">
         <v>54</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>90</v>
       </c>
       <c r="J5" s="4"/>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="L5" s="19" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1421,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>78</v>
@@ -1429,13 +1402,13 @@
       <c r="G6" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H6" s="18"/>
+      <c r="H6" s="19"/>
       <c r="I6" s="4" t="s">
         <v>87</v>
       </c>
       <c r="J6" s="4"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
@@ -1447,17 +1420,17 @@
         <v>28</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>68</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="18"/>
+      <c r="H7" s="19"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
@@ -1469,17 +1442,17 @@
         <v>12</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>69</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="18"/>
+      <c r="H8" s="19"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
@@ -1491,17 +1464,17 @@
         <v>34</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>69</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="H9" s="18"/>
+      <c r="H9" s="19"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
     </row>
     <row r="10" spans="1:13" s="1" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
@@ -1517,7 +1490,7 @@
         <v>60</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>44</v>
@@ -1549,13 +1522,13 @@
         <v>61</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>88</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="19" t="s">
         <v>71</v>
       </c>
       <c r="I11" s="8" t="s">
@@ -1564,10 +1537,10 @@
       <c r="J11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="L11" s="18" t="s">
+      <c r="L11" s="19" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1583,19 +1556,19 @@
         <v>62</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="H12" s="18"/>
+      <c r="H12" s="19"/>
       <c r="I12" s="8" t="s">
         <v>87</v>
       </c>
       <c r="J12" s="8"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
     </row>
     <row r="13" spans="1:13" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
@@ -1609,7 +1582,7 @@
         <v>63</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>44</v>
@@ -1647,17 +1620,17 @@
         <v>72</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="19" t="s">
         <v>71</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K14" s="18" t="s">
+      <c r="K14" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="L14" s="18" t="s">
+      <c r="L14" s="19" t="s">
         <v>99</v>
       </c>
       <c r="M14" s="12"/>
@@ -1680,13 +1653,13 @@
         <v>73</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="18"/>
+      <c r="H15" s="19"/>
       <c r="I15" s="5"/>
       <c r="J15" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1705,13 +1678,13 @@
         <v>65</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="H16" s="18"/>
+      <c r="H16" s="19"/>
       <c r="I16" s="11" t="s">
         <v>87</v>
       </c>
       <c r="J16" s="5"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
       <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1724,17 +1697,17 @@
         <v>18</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="H17" s="18"/>
+      <c r="H17" s="19"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1753,11 +1726,11 @@
         <v>45</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="H18" s="18"/>
+      <c r="H18" s="19"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1770,17 +1743,17 @@
         <v>35</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G19" s="7"/>
-      <c r="H19" s="18"/>
+      <c r="H19" s="19"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
       <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1793,17 +1766,17 @@
         <v>36</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G20" s="7"/>
-      <c r="H20" s="18"/>
+      <c r="H20" s="19"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
       <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" ht="84" customHeight="1" x14ac:dyDescent="0.25">
@@ -1816,17 +1789,17 @@
         <v>37</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G21" s="7"/>
-      <c r="H21" s="18"/>
+      <c r="H21" s="19"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" ht="84" customHeight="1" x14ac:dyDescent="0.25">
@@ -1836,18 +1809,20 @@
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E22" s="13"/>
+        <v>128</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="F22" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="H22" s="18"/>
+      <c r="H22" s="19"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" ht="84" customHeight="1" x14ac:dyDescent="0.25">
@@ -1857,18 +1832,20 @@
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E23" s="13"/>
+        <v>129</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>133</v>
+      </c>
       <c r="F23" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G23" s="7"/>
-      <c r="H23" s="18"/>
+      <c r="H23" s="19"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
       <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" ht="84" customHeight="1" x14ac:dyDescent="0.25">
@@ -1878,18 +1855,20 @@
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E24" s="13"/>
+        <v>130</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>134</v>
+      </c>
       <c r="F24" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G24" s="7"/>
-      <c r="H24" s="18"/>
+      <c r="H24" s="19"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
       <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1906,19 +1885,19 @@
         <v>20</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>47</v>
       </c>
       <c r="G25" s="7"/>
-      <c r="H25" s="18"/>
+      <c r="H25" s="19"/>
       <c r="I25" s="11" t="s">
         <v>87</v>
       </c>
       <c r="J25" s="5"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1931,17 +1910,17 @@
         <v>81</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>47</v>
       </c>
       <c r="G26" s="7"/>
-      <c r="H26" s="18"/>
+      <c r="H26" s="19"/>
       <c r="I26" s="11"/>
       <c r="J26" s="5"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
       <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1958,23 +1937,23 @@
         <v>21</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>74</v>
       </c>
       <c r="G27" s="7"/>
-      <c r="H27" s="18" t="s">
+      <c r="H27" s="19" t="s">
         <v>70</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="K27" s="18" t="s">
+      <c r="K27" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="L27" s="18" t="s">
+      <c r="L27" s="19" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1988,17 +1967,17 @@
         <v>22</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G28" s="7"/>
-      <c r="H28" s="18"/>
+      <c r="H28" s="19"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
     </row>
     <row r="29" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20"/>
@@ -2010,17 +1989,17 @@
         <v>23</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G29" s="7"/>
-      <c r="H29" s="18"/>
+      <c r="H29" s="19"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
     </row>
     <row r="30" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="20"/>
@@ -2032,17 +2011,17 @@
         <v>38</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G30" s="7"/>
-      <c r="H30" s="18"/>
+      <c r="H30" s="19"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
     </row>
     <row r="31" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20"/>
@@ -2056,17 +2035,17 @@
         <v>39</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G31" s="7"/>
-      <c r="H31" s="18"/>
+      <c r="H31" s="19"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
     </row>
     <row r="32" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="20"/>
@@ -2078,19 +2057,19 @@
         <v>40</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>75</v>
       </c>
       <c r="G32" s="7"/>
-      <c r="H32" s="18"/>
+      <c r="H32" s="19"/>
       <c r="I32" s="10" t="s">
         <v>87</v>
       </c>
       <c r="J32" s="5"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
     </row>
     <row r="33" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20"/>
@@ -2102,17 +2081,17 @@
         <v>41</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G33" s="7"/>
-      <c r="H33" s="18"/>
+      <c r="H33" s="19"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
     </row>
     <row r="34" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="20"/>
@@ -2124,17 +2103,17 @@
         <v>42</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G34" s="7"/>
-      <c r="H34" s="18"/>
+      <c r="H34" s="19"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
     </row>
     <row r="35" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
@@ -2148,7 +2127,7 @@
         <v>14</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7" t="s">
@@ -2172,13 +2151,8 @@
       <c r="G36" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K35" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K35"/>
   <mergeCells count="21">
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="L5:L9"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L14:L26"/>
-    <mergeCell ref="L27:L34"/>
     <mergeCell ref="H14:H26"/>
     <mergeCell ref="K14:K26"/>
     <mergeCell ref="H2:H4"/>
@@ -2195,6 +2169,11 @@
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="K5:K9"/>
     <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="L5:L9"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L14:L26"/>
+    <mergeCell ref="L27:L34"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Requirements/RTM.xlsx
+++ b/Requirements/RTM.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8AB99D-36A7-4EA1-8790-813FC38FC6A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -587,56 +588,57 @@
 TC_Register_024</t>
   </si>
   <si>
-    <t>TC_ViwAccount_001
+    <t xml:space="preserve">TC_Logout _001_client
+TC_Logout _001_Admin
+</t>
+  </si>
+  <si>
+    <t>SRS_PerformTransaction_009</t>
+  </si>
+  <si>
+    <t>SRS_PerformTransaction_010</t>
+  </si>
+  <si>
+    <t>SRS_PerformTransaction_011</t>
+  </si>
+  <si>
+    <t>TC_PerformTransaction_02
+TC_PerformTransaction_06</t>
+  </si>
+  <si>
+    <t>TC_PerformTransaction_05</t>
+  </si>
+  <si>
+    <t>TC_PerformTransaction_14</t>
+  </si>
+  <si>
+    <t>TC_PerformTransaction_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_ViwAccount_001
+TC_ViwAccount_002
 TC_ViwAccount_003
 TC_ViwAccount_004
 TC_ViwAccount_005
-TC_ViwAccount_006</t>
-  </si>
-  <si>
-    <t>TC_ViwAccount_009
+</t>
+  </si>
+  <si>
+    <t>TC_ViwAccount_008</t>
+  </si>
+  <si>
+    <t>TC_ViwAccount_007
+TC_ViwAccount_010
 TC_ViwAccount_011
-TC_ViwAccount_012
-TC_ViwAccount_013</t>
-  </si>
-  <si>
-    <t>TC_ViwAccount_010</t>
-  </si>
-  <si>
-    <t>TC_ViwAccount_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_Logout _001_client
-TC_Logout _001_Admin
-</t>
-  </si>
-  <si>
-    <t>SRS_PerformTransaction_009</t>
-  </si>
-  <si>
-    <t>SRS_PerformTransaction_010</t>
-  </si>
-  <si>
-    <t>SRS_PerformTransaction_011</t>
-  </si>
-  <si>
-    <t>TC_PerformTransaction_02
-TC_PerformTransaction_06</t>
-  </si>
-  <si>
-    <t>TC_PerformTransaction_05</t>
-  </si>
-  <si>
-    <t>TC_PerformTransaction_14</t>
-  </si>
-  <si>
-    <t>TC_PerformTransaction_15</t>
+TC_ViwAccount_012</t>
+  </si>
+  <si>
+    <t>TC_ViwAccount_013</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -878,10 +880,10 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -998,6 +1000,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1033,6 +1052,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1208,12 +1244,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="59.42578125" defaultRowHeight="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1286,17 +1322,17 @@
         <v>66</v>
       </c>
       <c r="G2" s="4"/>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="19" t="s">
         <v>55</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="19" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1320,13 +1356,13 @@
       <c r="G3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="19"/>
+      <c r="H3" s="18"/>
       <c r="I3" s="4" t="s">
         <v>87</v>
       </c>
       <c r="J3" s="4"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22"/>
@@ -1344,11 +1380,11 @@
         <v>59</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="19"/>
+      <c r="H4" s="18"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
@@ -1370,17 +1406,17 @@
         <v>67</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="18" t="s">
         <v>54</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>90</v>
       </c>
       <c r="J5" s="4"/>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="18" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1402,13 +1438,13 @@
       <c r="G6" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="18"/>
       <c r="I6" s="4" t="s">
         <v>87</v>
       </c>
       <c r="J6" s="4"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
@@ -1426,11 +1462,11 @@
         <v>68</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="19"/>
+      <c r="H7" s="18"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
@@ -1448,11 +1484,11 @@
         <v>69</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="19"/>
+      <c r="H8" s="18"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
@@ -1470,11 +1506,11 @@
         <v>69</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="H9" s="19"/>
+      <c r="H9" s="18"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:13" s="1" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
@@ -1490,7 +1526,7 @@
         <v>60</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>44</v>
@@ -1522,13 +1558,13 @@
         <v>61</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>88</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="18" t="s">
         <v>71</v>
       </c>
       <c r="I11" s="8" t="s">
@@ -1537,10 +1573,10 @@
       <c r="J11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="K11" s="19" t="s">
+      <c r="K11" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="L11" s="19" t="s">
+      <c r="L11" s="18" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1556,19 +1592,19 @@
         <v>62</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="H12" s="19"/>
+      <c r="H12" s="18"/>
       <c r="I12" s="8" t="s">
         <v>87</v>
       </c>
       <c r="J12" s="8"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
     </row>
     <row r="13" spans="1:13" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
@@ -1582,7 +1618,7 @@
         <v>63</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>44</v>
@@ -1620,17 +1656,17 @@
         <v>72</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="19" t="s">
+      <c r="H14" s="18" t="s">
         <v>71</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K14" s="19" t="s">
+      <c r="K14" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="L14" s="19" t="s">
+      <c r="L14" s="18" t="s">
         <v>99</v>
       </c>
       <c r="M14" s="12"/>
@@ -1653,13 +1689,13 @@
         <v>73</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="19"/>
+      <c r="H15" s="18"/>
       <c r="I15" s="5"/>
       <c r="J15" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1678,13 +1714,13 @@
         <v>65</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="H16" s="19"/>
+      <c r="H16" s="18"/>
       <c r="I16" s="11" t="s">
         <v>87</v>
       </c>
       <c r="J16" s="5"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
       <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1697,17 +1733,17 @@
         <v>18</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="H17" s="19"/>
+      <c r="H17" s="18"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1726,11 +1762,11 @@
         <v>45</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="H18" s="19"/>
+      <c r="H18" s="18"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1749,11 +1785,11 @@
         <v>45</v>
       </c>
       <c r="G19" s="7"/>
-      <c r="H19" s="19"/>
+      <c r="H19" s="18"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
       <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1772,11 +1808,11 @@
         <v>45</v>
       </c>
       <c r="G20" s="7"/>
-      <c r="H20" s="19"/>
+      <c r="H20" s="18"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
       <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" ht="84" customHeight="1" x14ac:dyDescent="0.25">
@@ -1795,11 +1831,11 @@
         <v>45</v>
       </c>
       <c r="G21" s="7"/>
-      <c r="H21" s="19"/>
+      <c r="H21" s="18"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" ht="84" customHeight="1" x14ac:dyDescent="0.25">
@@ -1809,20 +1845,20 @@
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>128</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>132</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="H22" s="19"/>
+      <c r="H22" s="18"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
       <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" ht="84" customHeight="1" x14ac:dyDescent="0.25">
@@ -1832,20 +1868,20 @@
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E23" s="13" t="s">
         <v>129</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>133</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G23" s="7"/>
-      <c r="H23" s="19"/>
+      <c r="H23" s="18"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
       <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" ht="84" customHeight="1" x14ac:dyDescent="0.25">
@@ -1855,20 +1891,20 @@
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>130</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>134</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G24" s="7"/>
-      <c r="H24" s="19"/>
+      <c r="H24" s="18"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
       <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1891,13 +1927,13 @@
         <v>47</v>
       </c>
       <c r="G25" s="7"/>
-      <c r="H25" s="19"/>
+      <c r="H25" s="18"/>
       <c r="I25" s="11" t="s">
         <v>87</v>
       </c>
       <c r="J25" s="5"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1916,11 +1952,11 @@
         <v>47</v>
       </c>
       <c r="G26" s="7"/>
-      <c r="H26" s="19"/>
+      <c r="H26" s="18"/>
       <c r="I26" s="11"/>
       <c r="J26" s="5"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
       <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1943,17 +1979,17 @@
         <v>74</v>
       </c>
       <c r="G27" s="7"/>
-      <c r="H27" s="19" t="s">
+      <c r="H27" s="18" t="s">
         <v>70</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="K27" s="19" t="s">
+      <c r="K27" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="L27" s="19" t="s">
+      <c r="L27" s="18" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1973,11 +2009,11 @@
         <v>46</v>
       </c>
       <c r="G28" s="7"/>
-      <c r="H28" s="19"/>
+      <c r="H28" s="18"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
     </row>
     <row r="29" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20"/>
@@ -1995,11 +2031,11 @@
         <v>46</v>
       </c>
       <c r="G29" s="7"/>
-      <c r="H29" s="19"/>
+      <c r="H29" s="18"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
     </row>
     <row r="30" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="20"/>
@@ -2017,11 +2053,11 @@
         <v>46</v>
       </c>
       <c r="G30" s="7"/>
-      <c r="H30" s="19"/>
+      <c r="H30" s="18"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
     </row>
     <row r="31" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20"/>
@@ -2041,11 +2077,11 @@
         <v>46</v>
       </c>
       <c r="G31" s="7"/>
-      <c r="H31" s="19"/>
+      <c r="H31" s="18"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
     </row>
     <row r="32" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="20"/>
@@ -2063,13 +2099,13 @@
         <v>75</v>
       </c>
       <c r="G32" s="7"/>
-      <c r="H32" s="19"/>
+      <c r="H32" s="18"/>
       <c r="I32" s="10" t="s">
         <v>87</v>
       </c>
       <c r="J32" s="5"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
     </row>
     <row r="33" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20"/>
@@ -2087,11 +2123,11 @@
         <v>46</v>
       </c>
       <c r="G33" s="7"/>
-      <c r="H33" s="19"/>
+      <c r="H33" s="18"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
     </row>
     <row r="34" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="20"/>
@@ -2109,11 +2145,11 @@
         <v>46</v>
       </c>
       <c r="G34" s="7"/>
-      <c r="H34" s="19"/>
+      <c r="H34" s="18"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
     </row>
     <row r="35" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
@@ -2127,7 +2163,7 @@
         <v>14</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7" t="s">
@@ -2151,8 +2187,13 @@
       <c r="G36" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K35"/>
+  <autoFilter ref="A1:K35" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="21">
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="L5:L9"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L14:L26"/>
+    <mergeCell ref="L27:L34"/>
     <mergeCell ref="H14:H26"/>
     <mergeCell ref="K14:K26"/>
     <mergeCell ref="H2:H4"/>
@@ -2169,11 +2210,6 @@
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="K5:K9"/>
     <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="L5:L9"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L14:L26"/>
-    <mergeCell ref="L27:L34"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
